--- a/Tuyen Quang.xlsx
+++ b/Tuyen Quang.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1552"/>
+  <dimension ref="A1:E1558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -749,17 +749,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Đào</t>
+          <t>Đinh</t>
         </is>
       </c>
       <c r="C19">
-        <v>11209</v>
+        <v>10475</v>
       </c>
       <c r="D19">
         <v>774612</v>
       </c>
       <c r="E19">
-        <v>1.447047037742767</v>
+        <v>1.352289920631232</v>
       </c>
     </row>
     <row r="20">
@@ -770,17 +770,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Đinh</t>
+          <t>Phùng</t>
         </is>
       </c>
       <c r="C20">
-        <v>10475</v>
+        <v>8321</v>
       </c>
       <c r="D20">
         <v>774612</v>
       </c>
       <c r="E20">
-        <v>1.352289920631232</v>
+        <v>1.074215220006919</v>
       </c>
     </row>
     <row r="21">
@@ -791,17 +791,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Phùng</t>
+          <t>Phan</t>
         </is>
       </c>
       <c r="C21">
-        <v>8321</v>
+        <v>8219</v>
       </c>
       <c r="D21">
         <v>774612</v>
       </c>
       <c r="E21">
-        <v>1.074215220006919</v>
+        <v>1.061047337247551</v>
       </c>
     </row>
     <row r="22">
@@ -812,17 +812,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Phan</t>
+          <t>Trương</t>
         </is>
       </c>
       <c r="C22">
-        <v>8219</v>
+        <v>8028</v>
       </c>
       <c r="D22">
         <v>774612</v>
       </c>
       <c r="E22">
-        <v>1.061047337247551</v>
+        <v>1.036389831296184</v>
       </c>
     </row>
     <row r="23">
@@ -833,17 +833,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trương</t>
+          <t>Đào</t>
         </is>
       </c>
       <c r="C23">
-        <v>8028</v>
+        <v>7695</v>
       </c>
       <c r="D23">
         <v>774612</v>
       </c>
       <c r="E23">
-        <v>1.036389831296184</v>
+        <v>0.99340056699354</v>
       </c>
     </row>
     <row r="24">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Lục</t>
+          <t>Đoàn</t>
         </is>
       </c>
       <c r="C35">
-        <v>3399</v>
+        <v>3772</v>
       </c>
       <c r="D35">
         <v>774612</v>
       </c>
       <c r="E35">
-        <v>0.4388003284224877</v>
+        <v>0.4869534683170413</v>
       </c>
     </row>
     <row r="36">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hứa</t>
+          <t>Lục</t>
         </is>
       </c>
       <c r="C36">
-        <v>3157</v>
+        <v>3399</v>
       </c>
       <c r="D36">
         <v>774612</v>
       </c>
       <c r="E36">
-        <v>0.4075588810914367</v>
+        <v>0.4388003284224877</v>
       </c>
     </row>
     <row r="37">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Hứa</t>
         </is>
       </c>
       <c r="C37">
-        <v>3058</v>
+        <v>3157</v>
       </c>
       <c r="D37">
         <v>774612</v>
       </c>
       <c r="E37">
-        <v>0.3947782890014613</v>
+        <v>0.4075588810914367</v>
       </c>
     </row>
     <row r="38">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chẩu</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="C38">
-        <v>3028</v>
+        <v>3058</v>
       </c>
       <c r="D38">
         <v>774612</v>
       </c>
       <c r="E38">
-        <v>0.3909053823075295</v>
+        <v>0.3947782890014613</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tướng</t>
+          <t>Chẩu</t>
         </is>
       </c>
       <c r="C39">
-        <v>2942</v>
+        <v>3028</v>
       </c>
       <c r="D39">
         <v>774612</v>
       </c>
       <c r="E39">
-        <v>0.3798030497849246</v>
+        <v>0.3909053823075295</v>
       </c>
     </row>
     <row r="40">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nịnh</t>
+          <t>Tướng</t>
         </is>
       </c>
       <c r="C40">
-        <v>2885</v>
+        <v>2942</v>
       </c>
       <c r="D40">
         <v>774612</v>
       </c>
       <c r="E40">
-        <v>0.3724445270664539</v>
+        <v>0.3798030497849246</v>
       </c>
     </row>
     <row r="41">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Âu</t>
+          <t>Nịnh</t>
         </is>
       </c>
       <c r="C41">
-        <v>2831</v>
+        <v>2885</v>
       </c>
       <c r="D41">
         <v>774612</v>
       </c>
       <c r="E41">
-        <v>0.3654732950173764</v>
+        <v>0.3724445270664539</v>
       </c>
     </row>
     <row r="42">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tô</t>
+          <t>Âu</t>
         </is>
       </c>
       <c r="C42">
-        <v>2802</v>
+        <v>2831</v>
       </c>
       <c r="D42">
         <v>774612</v>
       </c>
       <c r="E42">
-        <v>0.3617294852132422</v>
+        <v>0.3654732950173764</v>
       </c>
     </row>
     <row r="43">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Cao</t>
+          <t>Tô</t>
         </is>
       </c>
       <c r="C43">
-        <v>2496</v>
+        <v>2802</v>
       </c>
       <c r="D43">
         <v>774612</v>
       </c>
       <c r="E43">
-        <v>0.3222258369351366</v>
+        <v>0.3617294852132422</v>
       </c>
     </row>
     <row r="44">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Giàng</t>
+          <t>Cao</t>
         </is>
       </c>
       <c r="C44">
-        <v>2251</v>
+        <v>2496</v>
       </c>
       <c r="D44">
         <v>774612</v>
       </c>
       <c r="E44">
-        <v>0.2905970989346924</v>
+        <v>0.3222258369351366</v>
       </c>
     </row>
     <row r="45">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chúc</t>
+          <t>Giàng</t>
         </is>
       </c>
       <c r="C45">
-        <v>2012</v>
+        <v>2251</v>
       </c>
       <c r="D45">
         <v>774612</v>
       </c>
       <c r="E45">
-        <v>0.2597429422730348</v>
+        <v>0.2905970989346924</v>
       </c>
     </row>
     <row r="46">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Chúc</t>
         </is>
       </c>
       <c r="C46">
-        <v>1801</v>
+        <v>2012</v>
       </c>
       <c r="D46">
         <v>774612</v>
       </c>
       <c r="E46">
-        <v>0.2325034985257135</v>
+        <v>0.2597429422730348</v>
       </c>
     </row>
     <row r="47">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sùng</t>
+          <t>Vàng</t>
         </is>
       </c>
       <c r="C47">
-        <v>1644</v>
+        <v>1801</v>
       </c>
       <c r="D47">
         <v>774612</v>
       </c>
       <c r="E47">
-        <v>0.2122352868274698</v>
+        <v>0.2325034985257135</v>
       </c>
     </row>
     <row r="48">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hầu</t>
+          <t>Sùng</t>
         </is>
       </c>
       <c r="C48">
-        <v>1564</v>
+        <v>1644</v>
       </c>
       <c r="D48">
         <v>774612</v>
       </c>
       <c r="E48">
-        <v>0.2019075356436513</v>
+        <v>0.2122352868274698</v>
       </c>
     </row>
     <row r="49">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Hầu</t>
         </is>
       </c>
       <c r="C49">
-        <v>1521</v>
+        <v>1564</v>
       </c>
       <c r="D49">
         <v>774612</v>
       </c>
       <c r="E49">
-        <v>0.1963563693823488</v>
+        <v>0.2019075356436513</v>
       </c>
     </row>
     <row r="50">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lộc</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C50">
-        <v>1463</v>
+        <v>1521</v>
       </c>
       <c r="D50">
         <v>774612</v>
       </c>
       <c r="E50">
-        <v>0.1888687497740804</v>
+        <v>0.1963563693823488</v>
       </c>
     </row>
     <row r="51">
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Khổng</t>
+          <t>Lộc</t>
         </is>
       </c>
       <c r="C51">
-        <v>1365</v>
+        <v>1463</v>
       </c>
       <c r="D51">
         <v>774612</v>
       </c>
       <c r="E51">
-        <v>0.1762172545739028</v>
+        <v>0.1888687497740804</v>
       </c>
     </row>
     <row r="52">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sầm</t>
+          <t>Khổng</t>
         </is>
       </c>
       <c r="C52">
-        <v>1298</v>
+        <v>1365</v>
       </c>
       <c r="D52">
         <v>774612</v>
       </c>
       <c r="E52">
-        <v>0.1675677629574548</v>
+        <v>0.1762172545739028</v>
       </c>
     </row>
     <row r="53">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Bế</t>
+          <t>Sầm</t>
         </is>
       </c>
       <c r="C53">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="D53">
         <v>774612</v>
       </c>
       <c r="E53">
-        <v>0.1666640847288707</v>
+        <v>0.1675677629574548</v>
       </c>
     </row>
     <row r="54">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lại</t>
+          <t>Bế</t>
         </is>
       </c>
       <c r="C54">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="D54">
         <v>774612</v>
       </c>
       <c r="E54">
-        <v>0.1642112438227138</v>
+        <v>0.1666640847288707</v>
       </c>
     </row>
     <row r="55">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lò</t>
+          <t>Lại</t>
         </is>
       </c>
       <c r="C55">
-        <v>1226</v>
+        <v>1272</v>
       </c>
       <c r="D55">
         <v>774612</v>
       </c>
       <c r="E55">
-        <v>0.1582727868920182</v>
+        <v>0.1642112438227138</v>
       </c>
     </row>
     <row r="56">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lù</t>
+          <t>Lò</t>
         </is>
       </c>
       <c r="C56">
-        <v>1200</v>
+        <v>1226</v>
       </c>
       <c r="D56">
         <v>774612</v>
       </c>
       <c r="E56">
-        <v>0.1549162677572772</v>
+        <v>0.1582727868920182</v>
       </c>
     </row>
     <row r="57">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mã</t>
+          <t>Lù</t>
         </is>
       </c>
       <c r="C57">
-        <v>1184</v>
+        <v>1200</v>
       </c>
       <c r="D57">
         <v>774612</v>
       </c>
       <c r="E57">
-        <v>0.1528507175205135</v>
+        <v>0.1549162677572772</v>
       </c>
     </row>
     <row r="58">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mạc</t>
+          <t>Mã</t>
         </is>
       </c>
       <c r="C58">
-        <v>1166</v>
+        <v>1184</v>
       </c>
       <c r="D58">
         <v>774612</v>
       </c>
       <c r="E58">
-        <v>0.1505269735041543</v>
+        <v>0.1528507175205135</v>
       </c>
     </row>
     <row r="59">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tống</t>
+          <t>Mạc</t>
         </is>
       </c>
       <c r="C59">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="D59">
         <v>774612</v>
       </c>
       <c r="E59">
-        <v>0.1500105859449634</v>
+        <v>0.1505269735041543</v>
       </c>
     </row>
     <row r="60">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hồ</t>
+          <t>Tống</t>
         </is>
       </c>
       <c r="C60">
-        <v>1157</v>
+        <v>1162</v>
       </c>
       <c r="D60">
         <v>774612</v>
       </c>
       <c r="E60">
-        <v>0.1493651014959748</v>
+        <v>0.1500105859449634</v>
       </c>
     </row>
     <row r="61">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sằm</t>
+          <t>Hồ</t>
         </is>
       </c>
       <c r="C61">
-        <v>1033</v>
+        <v>1157</v>
       </c>
       <c r="D61">
         <v>774612</v>
       </c>
       <c r="E61">
-        <v>0.1333570871610561</v>
+        <v>0.1493651014959748</v>
       </c>
     </row>
     <row r="62">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Phương</t>
+          <t>Sằm</t>
         </is>
       </c>
       <c r="C62">
-        <v>904</v>
+        <v>1033</v>
       </c>
       <c r="D62">
         <v>774612</v>
       </c>
       <c r="E62">
-        <v>0.1167035883771488</v>
+        <v>0.1333570871610561</v>
       </c>
     </row>
     <row r="63">
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Đồng</t>
+          <t>Phương</t>
         </is>
       </c>
       <c r="C63">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="D63">
         <v>774612</v>
       </c>
       <c r="E63">
-        <v>0.1115397127852396</v>
+        <v>0.1167035883771488</v>
       </c>
     </row>
     <row r="64">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lã</t>
+          <t>Đồng</t>
         </is>
       </c>
       <c r="C64">
-        <v>788</v>
+        <v>864</v>
       </c>
       <c r="D64">
         <v>774612</v>
       </c>
       <c r="E64">
-        <v>0.101728349160612</v>
+        <v>0.1115397127852396</v>
       </c>
     </row>
     <row r="65">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Ninh</t>
+          <t>Lã</t>
         </is>
       </c>
       <c r="C65">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="D65">
         <v>774612</v>
       </c>
       <c r="E65">
-        <v>0.09140059797679355</v>
+        <v>0.101728349160612</v>
       </c>
     </row>
     <row r="66">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Thạch</t>
+          <t>Ninh</t>
         </is>
       </c>
       <c r="C66">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="D66">
         <v>774612</v>
       </c>
       <c r="E66">
-        <v>0.08959324151962532</v>
+        <v>0.09140059797679355</v>
       </c>
     </row>
     <row r="67">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Diệp</t>
+          <t>Thạch</t>
         </is>
       </c>
       <c r="C67">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="D67">
         <v>774612</v>
       </c>
       <c r="E67">
-        <v>0.08559123793589565</v>
+        <v>0.08959324151962532</v>
       </c>
     </row>
     <row r="68">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ban</t>
+          <t>Diệp</t>
         </is>
       </c>
       <c r="C68">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="D68">
         <v>774612</v>
       </c>
       <c r="E68">
-        <v>0.08223471880115464</v>
+        <v>0.08559123793589565</v>
       </c>
     </row>
     <row r="69">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ôn</t>
+          <t>Ban</t>
         </is>
       </c>
       <c r="C69">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D69">
         <v>774612</v>
       </c>
       <c r="E69">
-        <v>0.08184742813176145</v>
+        <v>0.08223471880115464</v>
       </c>
     </row>
     <row r="70">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bàng</t>
+          <t>Ôn</t>
         </is>
       </c>
       <c r="C70">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="D70">
         <v>774612</v>
       </c>
       <c r="E70">
-        <v>0.07810361832762726</v>
+        <v>0.08184742813176145</v>
       </c>
     </row>
     <row r="71">
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mông</t>
+          <t>Bàng</t>
         </is>
       </c>
       <c r="C71">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="D71">
         <v>774612</v>
       </c>
       <c r="E71">
-        <v>0.07487619608268398</v>
+        <v>0.07810361832762726</v>
       </c>
     </row>
     <row r="72">
@@ -1862,17 +1862,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tương</t>
+          <t>Mông</t>
         </is>
       </c>
       <c r="C72">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D72">
         <v>774612</v>
       </c>
       <c r="E72">
-        <v>0.07410161474389759</v>
+        <v>0.07487619608268398</v>
       </c>
     </row>
     <row r="73">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Thèn</t>
+          <t>Tương</t>
         </is>
       </c>
       <c r="C73">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D73">
         <v>774612</v>
       </c>
       <c r="E73">
-        <v>0.07358522718470666</v>
+        <v>0.07410161474389759</v>
       </c>
     </row>
     <row r="74">
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Kiều</t>
+          <t>Thèn</t>
         </is>
       </c>
       <c r="C74">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D74">
         <v>774612</v>
       </c>
       <c r="E74">
-        <v>0.0716487738377407</v>
+        <v>0.07358522718470666</v>
       </c>
     </row>
     <row r="75">
@@ -1925,17 +1925,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Bàn</t>
+          <t>Kiều</t>
         </is>
       </c>
       <c r="C75">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="D75">
         <v>774612</v>
       </c>
       <c r="E75">
-        <v>0.06919593293158381</v>
+        <v>0.0716487738377407</v>
       </c>
     </row>
     <row r="76">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Nhữ</t>
+          <t>Bàn</t>
         </is>
       </c>
       <c r="C76">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D76">
         <v>774612</v>
       </c>
       <c r="E76">
-        <v>0.06906683604178608</v>
+        <v>0.06919593293158381</v>
       </c>
     </row>
     <row r="77">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Quân</t>
+          <t>Nhữ</t>
         </is>
       </c>
       <c r="C77">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D77">
         <v>774612</v>
       </c>
       <c r="E77">
-        <v>0.06842135159279743</v>
+        <v>0.06906683604178608</v>
       </c>
     </row>
     <row r="78">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quách</t>
+          <t>Quân</t>
         </is>
       </c>
       <c r="C78">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D78">
         <v>774612</v>
       </c>
       <c r="E78">
-        <v>0.06777586714380877</v>
+        <v>0.06842135159279743</v>
       </c>
     </row>
     <row r="79">
@@ -2009,17 +2009,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiêu</t>
+          <t>Quách</t>
         </is>
       </c>
       <c r="C79">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D79">
         <v>774612</v>
       </c>
       <c r="E79">
-        <v>0.06700128580502239</v>
+        <v>0.06777586714380877</v>
       </c>
     </row>
     <row r="80">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Linh</t>
+          <t>Tiêu</t>
         </is>
       </c>
       <c r="C80">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D80">
         <v>774612</v>
       </c>
       <c r="E80">
-        <v>0.06571031690704507</v>
+        <v>0.06700128580502239</v>
       </c>
     </row>
     <row r="81">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cháng</t>
+          <t>Linh</t>
         </is>
       </c>
       <c r="C81">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="D81">
         <v>774612</v>
       </c>
       <c r="E81">
-        <v>0.06299928222129272</v>
+        <v>0.06571031690704507</v>
       </c>
     </row>
     <row r="82">
@@ -2072,17 +2072,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lăng</t>
+          <t>Cháng</t>
         </is>
       </c>
       <c r="C82">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D82">
         <v>774612</v>
       </c>
       <c r="E82">
-        <v>0.06145011954371996</v>
+        <v>0.06299928222129272</v>
       </c>
     </row>
     <row r="83">
@@ -2093,17 +2093,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Đường</t>
+          <t>Lăng</t>
         </is>
       </c>
       <c r="C83">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D83">
         <v>774612</v>
       </c>
       <c r="E83">
-        <v>0.06119192576412449</v>
+        <v>0.06145011954371996</v>
       </c>
     </row>
     <row r="84">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hán</t>
+          <t>Đường</t>
         </is>
       </c>
       <c r="C84">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="D84">
         <v>774612</v>
       </c>
       <c r="E84">
-        <v>0.05434979060484475</v>
+        <v>0.06119192576412449</v>
       </c>
     </row>
     <row r="85">
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lầu</t>
+          <t>Hán</t>
         </is>
       </c>
       <c r="C85">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="D85">
         <v>774612</v>
       </c>
       <c r="E85">
-        <v>0.04983139946192416</v>
+        <v>0.05434979060484475</v>
       </c>
     </row>
     <row r="86">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Đằng</t>
+          <t>Lầu</t>
         </is>
       </c>
       <c r="C86">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D86">
         <v>774612</v>
       </c>
       <c r="E86">
-        <v>0.04854043056394685</v>
+        <v>0.04983139946192416</v>
       </c>
     </row>
     <row r="87">
@@ -2177,17 +2177,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LẦU</t>
+          <t>Đằng</t>
         </is>
       </c>
       <c r="C87">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D87">
         <v>774612</v>
       </c>
       <c r="E87">
-        <v>0.04737855855576727</v>
+        <v>0.04854043056394685</v>
       </c>
     </row>
     <row r="88">
@@ -2198,17 +2198,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Nịnh</t>
+          <t>LẦU</t>
         </is>
       </c>
       <c r="C88">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D88">
         <v>774612</v>
       </c>
       <c r="E88">
-        <v>0.04647488032718316</v>
+        <v>0.04737855855576727</v>
       </c>
     </row>
     <row r="89">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Phượng</t>
+          <t>Nịnh</t>
         </is>
       </c>
       <c r="C89">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D89">
         <v>774612</v>
       </c>
       <c r="E89">
-        <v>0.04557120209859904</v>
+        <v>0.04647488032718316</v>
       </c>
     </row>
     <row r="90">
@@ -2240,17 +2240,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Nghiêm</t>
+          <t>Phượng</t>
         </is>
       </c>
       <c r="C90">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D90">
         <v>774612</v>
       </c>
       <c r="E90">
-        <v>0.04453842698021719</v>
+        <v>0.04557120209859904</v>
       </c>
     </row>
     <row r="91">
@@ -2261,17 +2261,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NỊNH</t>
+          <t>Nghiêm</t>
         </is>
       </c>
       <c r="C91">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D91">
         <v>774612</v>
       </c>
       <c r="E91">
-        <v>0.04350565186183535</v>
+        <v>0.04453842698021719</v>
       </c>
     </row>
     <row r="92">
@@ -2282,17 +2282,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hỏa</t>
+          <t>NỊNH</t>
         </is>
       </c>
       <c r="C92">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="D92">
         <v>774612</v>
       </c>
       <c r="E92">
-        <v>0.0420855860740603</v>
+        <v>0.04350565186183535</v>
       </c>
     </row>
     <row r="93">
@@ -2303,17 +2303,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lèng</t>
+          <t>Hỏa</t>
         </is>
       </c>
       <c r="C93">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="D93">
         <v>774612</v>
       </c>
       <c r="E93">
-        <v>0.04079461717608299</v>
+        <v>0.0420855860740603</v>
       </c>
     </row>
     <row r="94">
@@ -2324,17 +2324,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Thăng</t>
+          <t>Lèng</t>
         </is>
       </c>
       <c r="C94">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D94">
         <v>774612</v>
       </c>
       <c r="E94">
-        <v>0.03963274516790342</v>
+        <v>0.04079461717608299</v>
       </c>
     </row>
     <row r="95">
@@ -2345,17 +2345,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Phí</t>
+          <t>Thăng</t>
         </is>
       </c>
       <c r="C95">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D95">
         <v>774612</v>
       </c>
       <c r="E95">
-        <v>0.03898726071891476</v>
+        <v>0.03963274516790342</v>
       </c>
     </row>
     <row r="96">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lường</t>
+          <t>Phí</t>
         </is>
       </c>
       <c r="C96">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D96">
         <v>774612</v>
       </c>
       <c r="E96">
-        <v>0.03717990426174653</v>
+        <v>0.03898726071891476</v>
       </c>
     </row>
     <row r="97">
@@ -2387,17 +2387,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Seo</t>
+          <t>Lường</t>
         </is>
       </c>
       <c r="C97">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D97">
         <v>774612</v>
       </c>
       <c r="E97">
-        <v>0.0370508073719488</v>
+        <v>0.03717990426174653</v>
       </c>
     </row>
     <row r="98">
@@ -2408,17 +2408,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Phúc</t>
+          <t>Seo</t>
         </is>
       </c>
       <c r="C98">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D98">
         <v>774612</v>
       </c>
       <c r="E98">
-        <v>0.03563074158417376</v>
+        <v>0.0370508073719488</v>
       </c>
     </row>
     <row r="99">
@@ -2429,17 +2429,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Đoàn</t>
+          <t>Phúc</t>
         </is>
       </c>
       <c r="C99">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D99">
         <v>774612</v>
       </c>
       <c r="E99">
-        <v>0.0349852571351851</v>
+        <v>0.03563074158417376</v>
       </c>
     </row>
     <row r="100">
@@ -2492,17 +2492,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Văn</t>
+          <t>Khúc</t>
         </is>
       </c>
       <c r="C102">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D102">
         <v>774612</v>
       </c>
       <c r="E102">
-        <v>0.03149964111064636</v>
+        <v>0.03175783489024182</v>
       </c>
     </row>
     <row r="103">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Khúc</t>
+          <t>Văn</t>
         </is>
       </c>
       <c r="C103">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D103">
         <v>774612</v>
       </c>
       <c r="E103">
-        <v>0.0312414473310509</v>
+        <v>0.03162873800044409</v>
       </c>
     </row>
     <row r="104">
@@ -4613,17 +4613,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Châu</t>
+          <t>Thị</t>
         </is>
       </c>
       <c r="C203">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D203">
         <v>774612</v>
       </c>
       <c r="E203">
-        <v>0.00890768539604344</v>
+        <v>0.00903678228584117</v>
       </c>
     </row>
     <row r="204">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Vy</t>
+          <t>Châu</t>
         </is>
       </c>
       <c r="C204">
@@ -4655,17 +4655,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Nghinh</t>
+          <t>Vy</t>
         </is>
       </c>
       <c r="C205">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D205">
         <v>774612</v>
       </c>
       <c r="E205">
-        <v>0.008778588506245709</v>
+        <v>0.00890768539604344</v>
       </c>
     </row>
     <row r="206">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Nùng</t>
+          <t>Nghinh</t>
         </is>
       </c>
       <c r="C206">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sài</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="C207">
@@ -4718,17 +4718,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Ân</t>
+          <t>Sài</t>
         </is>
       </c>
       <c r="C208">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D208">
         <v>774612</v>
       </c>
       <c r="E208">
-        <v>0.008649491616447976</v>
+        <v>0.008778588506245709</v>
       </c>
     </row>
     <row r="209">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tình</t>
+          <t>Ân</t>
         </is>
       </c>
       <c r="C209">
@@ -4760,17 +4760,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Tình</t>
         </is>
       </c>
       <c r="C210">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D210">
         <v>774612</v>
       </c>
       <c r="E210">
-        <v>0.008520394726650246</v>
+        <v>0.008649491616447976</v>
       </c>
     </row>
     <row r="211">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Khẩu</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="C211">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ngàn</t>
+          <t>Khẩu</t>
         </is>
       </c>
       <c r="C212">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tàng</t>
+          <t>Ngàn</t>
         </is>
       </c>
       <c r="C213">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Thị</t>
+          <t>Tàng</t>
         </is>
       </c>
       <c r="C214">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>khúc</t>
+          <t>LAÂM</t>
         </is>
       </c>
       <c r="C824">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Khúc</t>
+          <t>Lac</t>
         </is>
       </c>
       <c r="C825">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>LAÂM</t>
+          <t>Lám</t>
         </is>
       </c>
       <c r="C826">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Lac</t>
+          <t>Làm</t>
         </is>
       </c>
       <c r="C827">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Lám</t>
+          <t>Lầm</t>
         </is>
       </c>
       <c r="C828">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Làm</t>
+          <t>làn</t>
         </is>
       </c>
       <c r="C829">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Lầm</t>
+          <t>Lăn</t>
         </is>
       </c>
       <c r="C830">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>làn</t>
+          <t>Lần</t>
         </is>
       </c>
       <c r="C831">
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Lăn</t>
+          <t>Léng</t>
         </is>
       </c>
       <c r="C832">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Lần</t>
+          <t>lệnh</t>
         </is>
       </c>
       <c r="C833">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>Léng</t>
+          <t>Lh</t>
         </is>
       </c>
       <c r="C834">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>lệnh</t>
+          <t>Liêm</t>
         </is>
       </c>
       <c r="C835">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Lh</t>
+          <t>Lôc</t>
         </is>
       </c>
       <c r="C836">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Liêm</t>
+          <t>Lọc</t>
         </is>
       </c>
       <c r="C837">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Lôc</t>
+          <t>Lơị</t>
         </is>
       </c>
       <c r="C838">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Lọc</t>
+          <t>LÙ</t>
         </is>
       </c>
       <c r="C839">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Lơị</t>
+          <t>Lừ</t>
         </is>
       </c>
       <c r="C840">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>LÙ</t>
+          <t>Lưi</t>
         </is>
       </c>
       <c r="C841">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Lừ</t>
+          <t>Lưng</t>
         </is>
       </c>
       <c r="C842">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Lưi</t>
+          <t>Lưỡng</t>
         </is>
       </c>
       <c r="C843">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Lưng</t>
+          <t>Mạ</t>
         </is>
       </c>
       <c r="C844">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Lưỡng</t>
+          <t>Mẫn</t>
         </is>
       </c>
       <c r="C845">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>Mạ</t>
+          <t>Mào</t>
         </is>
       </c>
       <c r="C846">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Mẫn</t>
+          <t>Mat</t>
         </is>
       </c>
       <c r="C847">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Mào</t>
+          <t>Màu</t>
         </is>
       </c>
       <c r="C848">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Mat</t>
+          <t>Mê</t>
         </is>
       </c>
       <c r="C849">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Màu</t>
+          <t>Mế</t>
         </is>
       </c>
       <c r="C850">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Mê</t>
+          <t>Mồng</t>
         </is>
       </c>
       <c r="C851">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Mế</t>
+          <t>Nai</t>
         </is>
       </c>
       <c r="C852">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Mồng</t>
+          <t>Năng</t>
         </is>
       </c>
       <c r="C853">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Nai</t>
+          <t>Ngạc</t>
         </is>
       </c>
       <c r="C854">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Năng</t>
+          <t>Ngải</t>
         </is>
       </c>
       <c r="C855">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ngạc</t>
+          <t>Ngần</t>
         </is>
       </c>
       <c r="C856">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Ngải</t>
+          <t>Nginh</t>
         </is>
       </c>
       <c r="C857">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ngần</t>
+          <t>Nguyết</t>
         </is>
       </c>
       <c r="C858">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Nginh</t>
+          <t>NGYUÊN</t>
         </is>
       </c>
       <c r="C859">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Nguyết</t>
+          <t>NHUYỄN</t>
         </is>
       </c>
       <c r="C860">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NGYUÊN</t>
+          <t>Niê</t>
         </is>
       </c>
       <c r="C861">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NHUYỄN</t>
+          <t>Nômg</t>
         </is>
       </c>
       <c r="C862">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Niê</t>
+          <t>Nóng</t>
         </is>
       </c>
       <c r="C863">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Nômg</t>
+          <t>Nộng</t>
         </is>
       </c>
       <c r="C864">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Nóng</t>
+          <t>Nônng</t>
         </is>
       </c>
       <c r="C865">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Nộng</t>
+          <t>páy</t>
         </is>
       </c>
       <c r="C866">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Nônng</t>
+          <t>Phám</t>
         </is>
       </c>
       <c r="C867">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>páy</t>
+          <t>Phẩm</t>
         </is>
       </c>
       <c r="C868">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Phám</t>
+          <t>Phán</t>
         </is>
       </c>
       <c r="C869">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Phẩm</t>
+          <t>Pháng</t>
         </is>
       </c>
       <c r="C870">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Phán</t>
+          <t>Phạp</t>
         </is>
       </c>
       <c r="C871">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Pháng</t>
+          <t>phung</t>
         </is>
       </c>
       <c r="C872">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Phạp</t>
+          <t>pọong</t>
         </is>
       </c>
       <c r="C873">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>phung</t>
+          <t>Pu</t>
         </is>
       </c>
       <c r="C874">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>pọong</t>
+          <t>Quánh</t>
         </is>
       </c>
       <c r="C875">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Pu</t>
+          <t>Quoàng</t>
         </is>
       </c>
       <c r="C876">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Quánh</t>
+          <t>Quốc</t>
         </is>
       </c>
       <c r="C877">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Quoàng</t>
+          <t>QuỐC</t>
         </is>
       </c>
       <c r="C878">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Quốc</t>
+          <t>Quyền</t>
         </is>
       </c>
       <c r="C879">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>QuỐC</t>
+          <t>Sai</t>
         </is>
       </c>
       <c r="C880">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Quyền</t>
+          <t>SÁI</t>
         </is>
       </c>
       <c r="C881">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Sai</t>
+          <t>sam</t>
         </is>
       </c>
       <c r="C882">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>SÁI</t>
+          <t>Sấm</t>
         </is>
       </c>
       <c r="C883">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>sam</t>
+          <t>San</t>
         </is>
       </c>
       <c r="C884">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Sấm</t>
+          <t>sèn</t>
         </is>
       </c>
       <c r="C885">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>San</t>
+          <t>Sên</t>
         </is>
       </c>
       <c r="C886">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>sèn</t>
+          <t>sìn</t>
         </is>
       </c>
       <c r="C887">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Sên</t>
+          <t>sung</t>
         </is>
       </c>
       <c r="C888">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>sìn</t>
+          <t>Súng</t>
         </is>
       </c>
       <c r="C889">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>sung</t>
+          <t>Sỹ</t>
         </is>
       </c>
       <c r="C890">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Súng</t>
+          <t>TA</t>
         </is>
       </c>
       <c r="C891">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Sỹ</t>
+          <t>tă</t>
         </is>
       </c>
       <c r="C892">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>TA</t>
+          <t>Tặc</t>
         </is>
       </c>
       <c r="C893">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>tă</t>
+          <t>TÁI</t>
         </is>
       </c>
       <c r="C894">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tặc</t>
+          <t>Tấn</t>
         </is>
       </c>
       <c r="C895">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>TÁI</t>
+          <t>Tầy</t>
         </is>
       </c>
       <c r="C896">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tấn</t>
+          <t>Tề</t>
         </is>
       </c>
       <c r="C897">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tầy</t>
+          <t>Than</t>
         </is>
       </c>
       <c r="C898">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tề</t>
+          <t>thao</t>
         </is>
       </c>
       <c r="C899">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>Than</t>
+          <t>Thiên</t>
         </is>
       </c>
       <c r="C900">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>thao</t>
+          <t>thiều</t>
         </is>
       </c>
       <c r="C901">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Thiên</t>
+          <t>Tỉnh</t>
         </is>
       </c>
       <c r="C902">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>thiều</t>
+          <t>tô</t>
         </is>
       </c>
       <c r="C903">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tỉnh</t>
+          <t>Tố</t>
         </is>
       </c>
       <c r="C904">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>tô</t>
+          <t>Trạch</t>
         </is>
       </c>
       <c r="C905">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>Tố</t>
+          <t>Trằm</t>
         </is>
       </c>
       <c r="C906">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Trạch</t>
+          <t>TRân</t>
         </is>
       </c>
       <c r="C907">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>Trằm</t>
+          <t>TRẨN</t>
         </is>
       </c>
       <c r="C908">
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>TRân</t>
+          <t>trieu</t>
         </is>
       </c>
       <c r="C909">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>TRẨN</t>
+          <t>trọng</t>
         </is>
       </c>
       <c r="C910">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>trieu</t>
+          <t>Trọng</t>
         </is>
       </c>
       <c r="C911">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>trọng</t>
+          <t>TRỌNG</t>
         </is>
       </c>
       <c r="C912">
@@ -19523,7 +19523,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Trọng</t>
+          <t>Trúng</t>
         </is>
       </c>
       <c r="C913">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>TRỌNG</t>
+          <t>Trướng</t>
         </is>
       </c>
       <c r="C914">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Trúng</t>
+          <t>trường</t>
         </is>
       </c>
       <c r="C915">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Trướng</t>
+          <t>Tứ</t>
         </is>
       </c>
       <c r="C916">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>trường</t>
+          <t>Tuấn</t>
         </is>
       </c>
       <c r="C917">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Tứ</t>
+          <t>Tươớng</t>
         </is>
       </c>
       <c r="C918">
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Tuấn</t>
+          <t>UMITA</t>
         </is>
       </c>
       <c r="C919">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Tươớng</t>
+          <t>Và</t>
         </is>
       </c>
       <c r="C920">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>UMITA</t>
+          <t>Vầy</t>
         </is>
       </c>
       <c r="C921">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>Và</t>
+          <t>Ví</t>
         </is>
       </c>
       <c r="C922">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>Vầy</t>
+          <t>Vl</t>
         </is>
       </c>
       <c r="C923">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Ví</t>
+          <t>Vô</t>
         </is>
       </c>
       <c r="C924">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Vl</t>
+          <t>Vư</t>
         </is>
       </c>
       <c r="C925">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Vô</t>
+          <t>Vướng</t>
         </is>
       </c>
       <c r="C926">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>Vư</t>
+          <t>VƯƠNNG</t>
         </is>
       </c>
       <c r="C927">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Vướng</t>
+          <t>Xầm</t>
         </is>
       </c>
       <c r="C928">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>VƯƠNNG</t>
+          <t>xiềm</t>
         </is>
       </c>
       <c r="C929">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Xầm</t>
+          <t>Xùng</t>
         </is>
       </c>
       <c r="C930">
@@ -19901,17 +19901,17 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>xiềm</t>
+          <t>̣</t>
         </is>
       </c>
       <c r="C931">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D931">
         <v>774612</v>
       </c>
       <c r="E931">
-        <v>0.000258193779595462</v>
+        <v>0.000129096889797731</v>
       </c>
     </row>
     <row r="932">
@@ -19922,17 +19922,17 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Xùng</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C932">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D932">
         <v>774612</v>
       </c>
       <c r="E932">
-        <v>0.000258193779595462</v>
+        <v>0.000129096889797731</v>
       </c>
     </row>
     <row r="933">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>̣</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C933">
@@ -19964,7 +19964,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>âm</t>
         </is>
       </c>
       <c r="C934">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Âm</t>
         </is>
       </c>
       <c r="C935">
@@ -20006,7 +20006,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>âm</t>
+          <t>Ăn</t>
         </is>
       </c>
       <c r="C936">
@@ -20027,7 +20027,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Âm</t>
+          <t>ÂuTrung</t>
         </is>
       </c>
       <c r="C937">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ăn</t>
+          <t>Bạ</t>
         </is>
       </c>
       <c r="C938">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>ÂuTrung</t>
+          <t>BẠCH</t>
         </is>
       </c>
       <c r="C939">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Bạ</t>
+          <t>Bagn</t>
         </is>
       </c>
       <c r="C940">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>BẠCH</t>
+          <t>Băn</t>
         </is>
       </c>
       <c r="C941">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Bagn</t>
+          <t>Bàng</t>
         </is>
       </c>
       <c r="C942">
@@ -20153,7 +20153,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>Băn</t>
+          <t>Bảng</t>
         </is>
       </c>
       <c r="C943">
@@ -20174,7 +20174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Bàng</t>
+          <t>Bànkim</t>
         </is>
       </c>
       <c r="C944">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Bảng</t>
+          <t>BànThanh</t>
         </is>
       </c>
       <c r="C945">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Bànkim</t>
+          <t>Bànthi</t>
         </is>
       </c>
       <c r="C946">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>BànThanh</t>
+          <t>BànThi</t>
         </is>
       </c>
       <c r="C947">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Bànthi</t>
+          <t>BànTiến</t>
         </is>
       </c>
       <c r="C948">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>BànThi</t>
+          <t>Bao</t>
         </is>
       </c>
       <c r="C949">
@@ -20300,7 +20300,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>BànTiến</t>
+          <t>Báo</t>
         </is>
       </c>
       <c r="C950">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Bao</t>
+          <t>bé</t>
         </is>
       </c>
       <c r="C951">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Báo</t>
+          <t>BÊ</t>
         </is>
       </c>
       <c r="C952">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>bé</t>
+          <t>bế</t>
         </is>
       </c>
       <c r="C953">
@@ -20384,7 +20384,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>BÊ</t>
+          <t>Bế̀</t>
         </is>
       </c>
       <c r="C954">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>bế</t>
+          <t>Bề</t>
         </is>
       </c>
       <c r="C955">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Bế̀</t>
+          <t>Bêa</t>
         </is>
       </c>
       <c r="C956">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Bề</t>
+          <t>Bèn</t>
         </is>
       </c>
       <c r="C957">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Bêa</t>
+          <t>Bguyen</t>
         </is>
       </c>
       <c r="C958">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>Bèn</t>
+          <t>Biên</t>
         </is>
       </c>
       <c r="C959">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>Bguyen</t>
+          <t>Bing</t>
         </is>
       </c>
       <c r="C960">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>Biên</t>
+          <t>Bình</t>
         </is>
       </c>
       <c r="C961">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Bing</t>
+          <t>Bìu</t>
         </is>
       </c>
       <c r="C962">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Bình</t>
+          <t>Bỉu</t>
         </is>
       </c>
       <c r="C963">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Bìu</t>
+          <t>Bna</t>
         </is>
       </c>
       <c r="C964">
@@ -20615,7 +20615,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Bỉu</t>
+          <t>Bong</t>
         </is>
       </c>
       <c r="C965">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Bna</t>
+          <t>Bòng</t>
         </is>
       </c>
       <c r="C966">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Bong</t>
+          <t>Bsn</t>
         </is>
       </c>
       <c r="C967">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>Bòng</t>
+          <t>Bù</t>
         </is>
       </c>
       <c r="C968">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>Bsn</t>
+          <t>BUì</t>
         </is>
       </c>
       <c r="C969">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>Bù</t>
+          <t>Bũi</t>
         </is>
       </c>
       <c r="C970">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>BUì</t>
+          <t>Bựi</t>
         </is>
       </c>
       <c r="C971">
@@ -20762,7 +20762,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Bũi</t>
+          <t>Bùn</t>
         </is>
       </c>
       <c r="C972">
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>Bựi</t>
+          <t>Bước</t>
         </is>
       </c>
       <c r="C973">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Bùn</t>
+          <t>Buog</t>
         </is>
       </c>
       <c r="C974">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>Bước</t>
+          <t>Buổi</t>
         </is>
       </c>
       <c r="C975">
@@ -20846,7 +20846,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Buog</t>
+          <t>Bỳ</t>
         </is>
       </c>
       <c r="C976">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Buổi</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C977">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>Bỳ</t>
+          <t>Cái</t>
         </is>
       </c>
       <c r="C978">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Cấm</t>
         </is>
       </c>
       <c r="C979">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Cái</t>
+          <t>CẤM</t>
         </is>
       </c>
       <c r="C980">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>Cấm</t>
+          <t>Cẩn</t>
         </is>
       </c>
       <c r="C981">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>CẤM</t>
+          <t>Cảnh</t>
         </is>
       </c>
       <c r="C982">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>Cẩn</t>
+          <t>Cạo</t>
         </is>
       </c>
       <c r="C983">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Cảnh</t>
+          <t>Cap</t>
         </is>
       </c>
       <c r="C984">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Cạo</t>
+          <t>Cắp</t>
         </is>
       </c>
       <c r="C985">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>cát</t>
         </is>
       </c>
       <c r="C986">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Cắp</t>
+          <t>Cẩu</t>
         </is>
       </c>
       <c r="C987">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>cát</t>
+          <t>Cậu</t>
         </is>
       </c>
       <c r="C988">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Cẩu</t>
+          <t>Cấy</t>
         </is>
       </c>
       <c r="C989">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>Cậu</t>
+          <t>Chạc</t>
         </is>
       </c>
       <c r="C990">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Cấy</t>
+          <t>Chắg</t>
         </is>
       </c>
       <c r="C991">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Chạc</t>
+          <t>Chán</t>
         </is>
       </c>
       <c r="C992">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Chắg</t>
+          <t>Chắn</t>
         </is>
       </c>
       <c r="C993">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>Chán</t>
+          <t>Chắng</t>
         </is>
       </c>
       <c r="C994">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Chắn</t>
+          <t>Chẳng</t>
         </is>
       </c>
       <c r="C995">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Chắng</t>
+          <t>Châng</t>
         </is>
       </c>
       <c r="C996">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Chẳng</t>
+          <t>Chấng</t>
         </is>
       </c>
       <c r="C997">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>Châng</t>
+          <t>Chãng</t>
         </is>
       </c>
       <c r="C998">
@@ -21329,7 +21329,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>Chấng</t>
+          <t>Chạng</t>
         </is>
       </c>
       <c r="C999">
@@ -21350,7 +21350,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Chãng</t>
+          <t>Chao</t>
         </is>
       </c>
       <c r="C1000">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Chạng</t>
+          <t>Chật</t>
         </is>
       </c>
       <c r="C1001">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Chao</t>
+          <t>Cháu</t>
         </is>
       </c>
       <c r="C1002">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Chật</t>
+          <t>Châủ</t>
         </is>
       </c>
       <c r="C1003">
@@ -21434,7 +21434,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Cháu</t>
+          <t>Chấu</t>
         </is>
       </c>
       <c r="C1004">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Châủ</t>
+          <t>chậu</t>
         </is>
       </c>
       <c r="C1005">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Chấu</t>
+          <t>Chậu</t>
         </is>
       </c>
       <c r="C1006">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>chậu</t>
+          <t>Chẩuthi</t>
         </is>
       </c>
       <c r="C1007">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Chậu</t>
+          <t>Chảy</t>
         </is>
       </c>
       <c r="C1008">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Chẩuthi</t>
+          <t>Chị</t>
         </is>
       </c>
       <c r="C1009">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Chảy</t>
+          <t>Chìn</t>
         </is>
       </c>
       <c r="C1010">
@@ -21581,7 +21581,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Chị</t>
+          <t>Chỉnh</t>
         </is>
       </c>
       <c r="C1011">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Chìn</t>
+          <t>Chíu</t>
         </is>
       </c>
       <c r="C1012">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Chỉnh</t>
+          <t>Chìu</t>
         </is>
       </c>
       <c r="C1013">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Chíu</t>
+          <t>cho</t>
         </is>
       </c>
       <c r="C1014">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Chìu</t>
+          <t>Cho</t>
         </is>
       </c>
       <c r="C1015">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>cho</t>
+          <t>Chờ</t>
         </is>
       </c>
       <c r="C1016">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Cho</t>
+          <t>Chỏa</t>
         </is>
       </c>
       <c r="C1017">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Chờ</t>
+          <t>Chỏng</t>
         </is>
       </c>
       <c r="C1018">
@@ -21749,7 +21749,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Chỏa</t>
+          <t>Chù</t>
         </is>
       </c>
       <c r="C1019">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Chỏng</t>
+          <t>Chũ</t>
         </is>
       </c>
       <c r="C1020">
@@ -21791,7 +21791,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Chù</t>
+          <t>chư</t>
         </is>
       </c>
       <c r="C1021">
@@ -21812,7 +21812,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Chũ</t>
+          <t>Chứ</t>
         </is>
       </c>
       <c r="C1022">
@@ -21833,7 +21833,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>chư</t>
+          <t>CHỬ</t>
         </is>
       </c>
       <c r="C1023">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Chứ</t>
+          <t>CHÙA</t>
         </is>
       </c>
       <c r="C1024">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>CHỬ</t>
+          <t>Chục</t>
         </is>
       </c>
       <c r="C1025">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>CHÙA</t>
+          <t>ChúcNgọc</t>
         </is>
       </c>
       <c r="C1026">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Chục</t>
+          <t>Chứng</t>
         </is>
       </c>
       <c r="C1027">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>ChúcNgọc</t>
+          <t>CHƯƠNG</t>
         </is>
       </c>
       <c r="C1028">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Chứng</t>
+          <t>Ciàng</t>
         </is>
       </c>
       <c r="C1029">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>CHƯƠNG</t>
+          <t>cù</t>
         </is>
       </c>
       <c r="C1030">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ciàng</t>
+          <t>Cúc</t>
         </is>
       </c>
       <c r="C1031">
@@ -22022,7 +22022,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>cù</t>
+          <t>Cùi</t>
         </is>
       </c>
       <c r="C1032">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Cúc</t>
+          <t>Cụt</t>
         </is>
       </c>
       <c r="C1033">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Cùi</t>
+          <t>Đ</t>
         </is>
       </c>
       <c r="C1034">
@@ -22085,7 +22085,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Cụt</t>
+          <t>Da</t>
         </is>
       </c>
       <c r="C1035">
@@ -22106,7 +22106,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Đ</t>
+          <t>Đá</t>
         </is>
       </c>
       <c r="C1036">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Da</t>
+          <t>Đăặng</t>
         </is>
       </c>
       <c r="C1037">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Đá</t>
+          <t>dác</t>
         </is>
       </c>
       <c r="C1038">
@@ -22169,7 +22169,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Đăặng</t>
+          <t>đặc</t>
         </is>
       </c>
       <c r="C1039">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>dác</t>
+          <t>Đái</t>
         </is>
       </c>
       <c r="C1040">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>đặc</t>
+          <t>Đại</t>
         </is>
       </c>
       <c r="C1041">
@@ -22232,7 +22232,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Đái</t>
+          <t>Dám</t>
         </is>
       </c>
       <c r="C1042">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Đại</t>
+          <t>ĐAM</t>
         </is>
       </c>
       <c r="C1043">
@@ -22274,7 +22274,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Dám</t>
+          <t>Đám</t>
         </is>
       </c>
       <c r="C1044">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>ĐAM</t>
+          <t>Dàmg</t>
         </is>
       </c>
       <c r="C1045">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Đám</t>
+          <t>đan</t>
         </is>
       </c>
       <c r="C1046">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Dàmg</t>
+          <t>Đán</t>
         </is>
       </c>
       <c r="C1047">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>đan</t>
+          <t>Đằng</t>
         </is>
       </c>
       <c r="C1048">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Đán</t>
+          <t>ĐẰNG</t>
         </is>
       </c>
       <c r="C1049">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Đằng</t>
+          <t>ĐẰNG</t>
         </is>
       </c>
       <c r="C1050">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>ĐẰNG</t>
+          <t>Đâng</t>
         </is>
       </c>
       <c r="C1051">
@@ -22442,7 +22442,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>ĐẰNG</t>
+          <t>Đẫng</t>
         </is>
       </c>
       <c r="C1052">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Đâng</t>
+          <t>Đãng</t>
         </is>
       </c>
       <c r="C1053">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Đẫng</t>
+          <t>Đãng</t>
         </is>
       </c>
       <c r="C1054">
@@ -22505,7 +22505,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Đãng</t>
+          <t>Đảng</t>
         </is>
       </c>
       <c r="C1055">
@@ -22526,7 +22526,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Đãng</t>
+          <t>DăngTài</t>
         </is>
       </c>
       <c r="C1056">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Đảng</t>
+          <t>Danh</t>
         </is>
       </c>
       <c r="C1057">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>DăngTài</t>
+          <t>Đănh</t>
         </is>
       </c>
       <c r="C1058">
@@ -22589,7 +22589,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Danh</t>
+          <t>Đạnh</t>
         </is>
       </c>
       <c r="C1059">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Đănh</t>
+          <t>Dạo</t>
         </is>
       </c>
       <c r="C1060">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Đạnh</t>
+          <t>ĐAO</t>
         </is>
       </c>
       <c r="C1061">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Dạo</t>
+          <t>Đaòn</t>
         </is>
       </c>
       <c r="C1062">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>ĐAO</t>
+          <t>Đaonf</t>
         </is>
       </c>
       <c r="C1063">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Đaonf</t>
+          <t>ĐàoPhương</t>
         </is>
       </c>
       <c r="C1064">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>đặt</t>
+          <t>ĐàoThi</t>
         </is>
       </c>
       <c r="C1066">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Đâù</t>
+          <t>đặt</t>
         </is>
       </c>
       <c r="C1067">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>ĐẦU</t>
+          <t>Đâù</t>
         </is>
       </c>
       <c r="C1068">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>DĐô</t>
+          <t>ĐẦU</t>
         </is>
       </c>
       <c r="C1069">
@@ -22820,7 +22820,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>ĐỀN</t>
+          <t>Dđào</t>
         </is>
       </c>
       <c r="C1070">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Dêu</t>
+          <t>DĐô</t>
         </is>
       </c>
       <c r="C1071">
@@ -22862,7 +22862,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Đi</t>
+          <t>ĐỀN</t>
         </is>
       </c>
       <c r="C1072">
@@ -22883,7 +22883,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Đibh</t>
+          <t>Dêu</t>
         </is>
       </c>
       <c r="C1073">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>điền</t>
+          <t>Đi</t>
         </is>
       </c>
       <c r="C1074">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Điệp</t>
+          <t>Đibh</t>
         </is>
       </c>
       <c r="C1075">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Điểu</t>
+          <t>điền</t>
         </is>
       </c>
       <c r="C1076">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Điinh</t>
+          <t>Điệp</t>
         </is>
       </c>
       <c r="C1077">
@@ -22988,7 +22988,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Dỉn</t>
+          <t>Điểu</t>
         </is>
       </c>
       <c r="C1078">
@@ -23009,7 +23009,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Địn</t>
+          <t>Điinh</t>
         </is>
       </c>
       <c r="C1079">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Dính</t>
+          <t>Dỉn</t>
         </is>
       </c>
       <c r="C1080">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Địnhkn</t>
+          <t>Địn</t>
         </is>
       </c>
       <c r="C1081">
@@ -23072,7 +23072,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Diu</t>
+          <t>Dính</t>
         </is>
       </c>
       <c r="C1082">
@@ -23093,7 +23093,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Đnh</t>
+          <t>Địnhkn</t>
         </is>
       </c>
       <c r="C1083">
@@ -23114,7 +23114,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>ĐNH</t>
+          <t>Diu</t>
         </is>
       </c>
       <c r="C1084">
@@ -23135,7 +23135,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Dô</t>
+          <t>Đnh</t>
         </is>
       </c>
       <c r="C1085">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Đó</t>
+          <t>ĐNH</t>
         </is>
       </c>
       <c r="C1086">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>ĐÔ</t>
+          <t>Dô</t>
         </is>
       </c>
       <c r="C1087">
@@ -23198,7 +23198,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>ĐỐ</t>
+          <t>Đó</t>
         </is>
       </c>
       <c r="C1088">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Đõ</t>
+          <t>ĐÔ</t>
         </is>
       </c>
       <c r="C1089">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Độ</t>
+          <t>ĐỐ</t>
         </is>
       </c>
       <c r="C1090">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Doăn</t>
+          <t>Đõ</t>
         </is>
       </c>
       <c r="C1091">
@@ -23282,7 +23282,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Dõan</t>
+          <t>Độ</t>
         </is>
       </c>
       <c r="C1092">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Đối</t>
+          <t>Doăn</t>
         </is>
       </c>
       <c r="C1093">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>ĐÒNG</t>
+          <t>Dõan</t>
         </is>
       </c>
       <c r="C1094">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Đoỗ</t>
+          <t>Đoàng</t>
         </is>
       </c>
       <c r="C1095">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Đôỗ</t>
+          <t>Đòang</t>
         </is>
       </c>
       <c r="C1096">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Dùi</t>
+          <t>Đoànn</t>
         </is>
       </c>
       <c r="C1097">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Dũng</t>
+          <t>ĐòanThúy</t>
         </is>
       </c>
       <c r="C1098">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>dươgn</t>
+          <t>Đối</t>
         </is>
       </c>
       <c r="C1099">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Duomg</t>
+          <t>ĐÒNG</t>
         </is>
       </c>
       <c r="C1100">
@@ -23471,7 +23471,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Duông</t>
+          <t>Đoỗ</t>
         </is>
       </c>
       <c r="C1101">
@@ -23492,7 +23492,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Dưông</t>
+          <t>Đôỗ</t>
         </is>
       </c>
       <c r="C1102">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>ĐƯỜNG</t>
+          <t>Dùi</t>
         </is>
       </c>
       <c r="C1103">
@@ -23534,7 +23534,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Dươnn</t>
+          <t>Dũng</t>
         </is>
       </c>
       <c r="C1104">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Dươợng</t>
+          <t>dươgn</t>
         </is>
       </c>
       <c r="C1105">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Duương</t>
+          <t>Duomg</t>
         </is>
       </c>
       <c r="C1106">
@@ -23597,7 +23597,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>giá</t>
+          <t>Duông</t>
         </is>
       </c>
       <c r="C1107">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>giáng</t>
+          <t>Dưông</t>
         </is>
       </c>
       <c r="C1108">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Góa</t>
+          <t>ĐƯỜNG</t>
         </is>
       </c>
       <c r="C1109">
@@ -23660,7 +23660,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Goàng</t>
+          <t>Dươnn</t>
         </is>
       </c>
       <c r="C1110">
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Gừng</t>
+          <t>Dươợng</t>
         </is>
       </c>
       <c r="C1111">
@@ -23702,7 +23702,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Guyễn</t>
+          <t>Duương</t>
         </is>
       </c>
       <c r="C1112">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>giá</t>
         </is>
       </c>
       <c r="C1113">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Hạc</t>
+          <t>giáng</t>
         </is>
       </c>
       <c r="C1114">
@@ -23765,7 +23765,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Hặc</t>
+          <t>Góa</t>
         </is>
       </c>
       <c r="C1115">
@@ -23786,7 +23786,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Hại</t>
+          <t>Goàng</t>
         </is>
       </c>
       <c r="C1116">
@@ -23807,7 +23807,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>HẠM</t>
+          <t>Gừng</t>
         </is>
       </c>
       <c r="C1117">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>hán</t>
+          <t>Guyễn</t>
         </is>
       </c>
       <c r="C1118">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Hãng</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="C1119">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Hâù</t>
+          <t>Hạc</t>
         </is>
       </c>
       <c r="C1120">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Hậu</t>
+          <t>Hặc</t>
         </is>
       </c>
       <c r="C1121">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>HMiêu</t>
+          <t>Hại</t>
         </is>
       </c>
       <c r="C1122">
@@ -23933,7 +23933,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>HẠM</t>
         </is>
       </c>
       <c r="C1123">
@@ -23954,7 +23954,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Hổ</t>
+          <t>hán</t>
         </is>
       </c>
       <c r="C1124">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Hơ</t>
+          <t>Hãng</t>
         </is>
       </c>
       <c r="C1125">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Hơ'</t>
+          <t>Hâù</t>
         </is>
       </c>
       <c r="C1126">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>HÒA</t>
+          <t>Hậu</t>
         </is>
       </c>
       <c r="C1127">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>́Hỏa</t>
+          <t>HMiêu</t>
         </is>
       </c>
       <c r="C1128">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>HOAÀNG</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="C1129">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Hòabg</t>
+          <t>Hổ</t>
         </is>
       </c>
       <c r="C1130">
@@ -24101,7 +24101,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>hoag</t>
+          <t>Hơ</t>
         </is>
       </c>
       <c r="C1131">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Hoàm</t>
+          <t>Hơ'</t>
         </is>
       </c>
       <c r="C1132">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>hoàn</t>
+          <t>HÒA</t>
         </is>
       </c>
       <c r="C1133">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Hoăng</t>
+          <t>́Hỏa</t>
         </is>
       </c>
       <c r="C1134">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Hoãng</t>
+          <t>HOAÀNG</t>
         </is>
       </c>
       <c r="C1135">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Hôàng</t>
+          <t>Hòabg</t>
         </is>
       </c>
       <c r="C1136">
@@ -24227,7 +24227,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Hoánh</t>
+          <t>hoag</t>
         </is>
       </c>
       <c r="C1137">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Hong</t>
+          <t>Hoàm</t>
         </is>
       </c>
       <c r="C1138">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Hông</t>
+          <t>hoàn</t>
         </is>
       </c>
       <c r="C1139">
@@ -24290,7 +24290,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Hoồng</t>
+          <t>Hoăng</t>
         </is>
       </c>
       <c r="C1140">
@@ -24311,7 +24311,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Hu</t>
+          <t>Hoãng</t>
         </is>
       </c>
       <c r="C1141">
@@ -24332,7 +24332,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Hú</t>
+          <t>Hôàng</t>
         </is>
       </c>
       <c r="C1142">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>hù</t>
+          <t>Hoánh</t>
         </is>
       </c>
       <c r="C1143">
@@ -24374,7 +24374,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Hũa</t>
+          <t>Hong</t>
         </is>
       </c>
       <c r="C1144">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Hưâ</t>
+          <t>Hông</t>
         </is>
       </c>
       <c r="C1145">
@@ -24416,7 +24416,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>HỨA</t>
+          <t>Hoồng</t>
         </is>
       </c>
       <c r="C1146">
@@ -24437,7 +24437,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Hữa</t>
+          <t>Hu</t>
         </is>
       </c>
       <c r="C1147">
@@ -24458,7 +24458,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Hùng</t>
+          <t>Hú</t>
         </is>
       </c>
       <c r="C1148">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>HÙNG</t>
+          <t>hù</t>
         </is>
       </c>
       <c r="C1149">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Hụng</t>
+          <t>Hũa</t>
         </is>
       </c>
       <c r="C1150">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Huống</t>
+          <t>Hưâ</t>
         </is>
       </c>
       <c r="C1151">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Hươu</t>
+          <t>HỨA</t>
         </is>
       </c>
       <c r="C1152">
@@ -24563,7 +24563,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>hùy</t>
+          <t>Hữa</t>
         </is>
       </c>
       <c r="C1153">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Huyễn</t>
+          <t>Hùng</t>
         </is>
       </c>
       <c r="C1154">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Hy</t>
+          <t>HÙNG</t>
         </is>
       </c>
       <c r="C1155">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Hyên</t>
+          <t>Hụng</t>
         </is>
       </c>
       <c r="C1156">
@@ -24647,7 +24647,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Ie</t>
+          <t>Huống</t>
         </is>
       </c>
       <c r="C1157">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Ieo</t>
+          <t>Hươu</t>
         </is>
       </c>
       <c r="C1158">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Iiều</t>
+          <t>hùy</t>
         </is>
       </c>
       <c r="C1159">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Iương</t>
+          <t>Huyễn</t>
         </is>
       </c>
       <c r="C1160">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Katơr</t>
+          <t>Hy</t>
         </is>
       </c>
       <c r="C1161">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Káy</t>
+          <t>Hyên</t>
         </is>
       </c>
       <c r="C1162">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Khác</t>
+          <t>Ie</t>
         </is>
       </c>
       <c r="C1163">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Kham</t>
+          <t>Ieo</t>
         </is>
       </c>
       <c r="C1164">
@@ -24815,7 +24815,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Khiêm</t>
+          <t>Iiều</t>
         </is>
       </c>
       <c r="C1165">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Khoan</t>
+          <t>Iương</t>
         </is>
       </c>
       <c r="C1166">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Khong</t>
+          <t>Katơr</t>
         </is>
       </c>
       <c r="C1167">
@@ -24878,7 +24878,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>khổng</t>
+          <t>Káy</t>
         </is>
       </c>
       <c r="C1168">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Khoong</t>
+          <t>Khác</t>
         </is>
       </c>
       <c r="C1169">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Khôổng</t>
+          <t>Kham</t>
         </is>
       </c>
       <c r="C1170">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Khuát</t>
+          <t>Khiêm</t>
         </is>
       </c>
       <c r="C1171">
@@ -24962,7 +24962,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Khúat</t>
+          <t>Khoan</t>
         </is>
       </c>
       <c r="C1172">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>khuong</t>
+          <t>Khong</t>
         </is>
       </c>
       <c r="C1173">
@@ -25004,7 +25004,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>KHUONG</t>
+          <t>khổng</t>
         </is>
       </c>
       <c r="C1174">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Khuou</t>
+          <t>Khoong</t>
         </is>
       </c>
       <c r="C1175">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Kiang</t>
+          <t>Khôổng</t>
         </is>
       </c>
       <c r="C1176">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Kiềng</t>
+          <t>Khuát</t>
         </is>
       </c>
       <c r="C1177">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Kìm</t>
+          <t>Khúat</t>
         </is>
       </c>
       <c r="C1178">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Kính</t>
+          <t>khuong</t>
         </is>
       </c>
       <c r="C1179">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Kon</t>
+          <t>KHUONG</t>
         </is>
       </c>
       <c r="C1180">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>ksor</t>
+          <t>Khuou</t>
         </is>
       </c>
       <c r="C1181">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Kwon</t>
+          <t>Kiang</t>
         </is>
       </c>
       <c r="C1182">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Kỳ</t>
+          <t>Kiềng</t>
         </is>
       </c>
       <c r="C1183">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Lẵ</t>
+          <t>Kìm</t>
         </is>
       </c>
       <c r="C1184">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>LÂ</t>
+          <t>Kính</t>
         </is>
       </c>
       <c r="C1185">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>lẫ</t>
+          <t>Kon</t>
         </is>
       </c>
       <c r="C1186">
@@ -25277,7 +25277,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>lã</t>
+          <t>ksor</t>
         </is>
       </c>
       <c r="C1187">
@@ -25298,7 +25298,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Laã</t>
+          <t>Kwon</t>
         </is>
       </c>
       <c r="C1188">
@@ -25319,7 +25319,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Laã</t>
+          <t>Kỳ</t>
         </is>
       </c>
       <c r="C1189">
@@ -25340,7 +25340,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Laâm</t>
+          <t>Lẵ</t>
         </is>
       </c>
       <c r="C1190">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Lạc</t>
+          <t>LÂ</t>
         </is>
       </c>
       <c r="C1191">
@@ -25382,7 +25382,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Lài</t>
+          <t>lẫ</t>
         </is>
       </c>
       <c r="C1192">
@@ -25403,7 +25403,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Laij</t>
+          <t>lã</t>
         </is>
       </c>
       <c r="C1193">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>làm</t>
+          <t>Laã</t>
         </is>
       </c>
       <c r="C1194">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Lắm</t>
+          <t>Laã</t>
         </is>
       </c>
       <c r="C1195">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Lạm</t>
+          <t>Laâm</t>
         </is>
       </c>
       <c r="C1196">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Lan</t>
+          <t>Lạc</t>
         </is>
       </c>
       <c r="C1197">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>LÂN</t>
+          <t>Lài</t>
         </is>
       </c>
       <c r="C1198">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>LANG</t>
+          <t>Laij</t>
         </is>
       </c>
       <c r="C1199">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Làng</t>
+          <t>làm</t>
         </is>
       </c>
       <c r="C1200">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>LĂNG</t>
+          <t>Lắm</t>
         </is>
       </c>
       <c r="C1201">
@@ -25592,7 +25592,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Langười</t>
+          <t>Lạm</t>
         </is>
       </c>
       <c r="C1202">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Lanh</t>
+          <t>Lan</t>
         </is>
       </c>
       <c r="C1203">
@@ -25634,7 +25634,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Lành</t>
+          <t>LÂN</t>
         </is>
       </c>
       <c r="C1204">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>lạnh</t>
+          <t>LANG</t>
         </is>
       </c>
       <c r="C1205">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Lănng</t>
+          <t>Làng</t>
         </is>
       </c>
       <c r="C1206">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>LĂNG</t>
         </is>
       </c>
       <c r="C1207">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Lắp</t>
+          <t>Langười</t>
         </is>
       </c>
       <c r="C1208">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Lập</t>
+          <t>Lanh</t>
         </is>
       </c>
       <c r="C1209">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Lâù</t>
+          <t>Lành</t>
         </is>
       </c>
       <c r="C1210">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Lẩu</t>
+          <t>lạnh</t>
         </is>
       </c>
       <c r="C1211">
@@ -25802,7 +25802,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Lay</t>
+          <t>Lănng</t>
         </is>
       </c>
       <c r="C1212">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Lâỳ</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="C1213">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>lèo</t>
+          <t>Lắp</t>
         </is>
       </c>
       <c r="C1214">
@@ -25865,7 +25865,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Lẹo</t>
+          <t>Lập</t>
         </is>
       </c>
       <c r="C1215">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>LÍ</t>
+          <t>Lâù</t>
         </is>
       </c>
       <c r="C1216">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Lì</t>
+          <t>Lẩu</t>
         </is>
       </c>
       <c r="C1217">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Lịch</t>
+          <t>Lay</t>
         </is>
       </c>
       <c r="C1218">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Lièng</t>
+          <t>Lâỳ</t>
         </is>
       </c>
       <c r="C1219">
@@ -25970,7 +25970,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Liễu</t>
+          <t>lèo</t>
         </is>
       </c>
       <c r="C1220">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Lính</t>
+          <t>Lẹo</t>
         </is>
       </c>
       <c r="C1221">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>liu</t>
+          <t>LÍ</t>
         </is>
       </c>
       <c r="C1222">
@@ -26033,7 +26033,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>lịu</t>
+          <t>Lì</t>
         </is>
       </c>
       <c r="C1223">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Lố</t>
+          <t>Lịch</t>
         </is>
       </c>
       <c r="C1224">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Lờ</t>
+          <t>Lièng</t>
         </is>
       </c>
       <c r="C1225">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>lôc</t>
+          <t>Liễu</t>
         </is>
       </c>
       <c r="C1226">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Lỗi</t>
+          <t>Lính</t>
         </is>
       </c>
       <c r="C1227">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>lông</t>
+          <t>liu</t>
         </is>
       </c>
       <c r="C1228">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Lông</t>
+          <t>lịu</t>
         </is>
       </c>
       <c r="C1229">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Ls</t>
+          <t>Lố</t>
         </is>
       </c>
       <c r="C1230">
@@ -26201,7 +26201,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Lù</t>
+          <t>Lờ</t>
         </is>
       </c>
       <c r="C1231">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Lử</t>
+          <t>lôc</t>
         </is>
       </c>
       <c r="C1232">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Lưa</t>
+          <t>Lỗi</t>
         </is>
       </c>
       <c r="C1233">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Lụa</t>
+          <t>lông</t>
         </is>
       </c>
       <c r="C1234">
@@ -26285,7 +26285,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Lươ</t>
+          <t>Lông</t>
         </is>
       </c>
       <c r="C1235">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Lươg</t>
+          <t>Ls</t>
         </is>
       </c>
       <c r="C1236">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Lươgn</t>
+          <t>Lù</t>
         </is>
       </c>
       <c r="C1237">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>LƯƠMG</t>
+          <t>Lử</t>
         </is>
       </c>
       <c r="C1238">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Luôn</t>
+          <t>Lưa</t>
         </is>
       </c>
       <c r="C1239">
@@ -26390,7 +26390,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>LUONG</t>
+          <t>Lụa</t>
         </is>
       </c>
       <c r="C1240">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Lũờng</t>
+          <t>Lươ</t>
         </is>
       </c>
       <c r="C1241">
@@ -26432,7 +26432,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Lướng</t>
+          <t>Lươg</t>
         </is>
       </c>
       <c r="C1242">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Lừờng</t>
+          <t>Lươgn</t>
         </is>
       </c>
       <c r="C1243">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Lưpng</t>
+          <t>LƯƠMG</t>
         </is>
       </c>
       <c r="C1244">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>LUƯƠNG</t>
+          <t>Luôn</t>
         </is>
       </c>
       <c r="C1245">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Luyện</t>
+          <t>LUONG</t>
         </is>
       </c>
       <c r="C1246">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Lũờng</t>
         </is>
       </c>
       <c r="C1247">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Mă</t>
+          <t>Lướng</t>
         </is>
       </c>
       <c r="C1248">
@@ -26579,7 +26579,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Ma ̣</t>
+          <t>Lừờng</t>
         </is>
       </c>
       <c r="C1249">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Maã</t>
+          <t>Lưpng</t>
         </is>
       </c>
       <c r="C1250">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>mac</t>
+          <t>LUƯƠNG</t>
         </is>
       </c>
       <c r="C1251">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Măc</t>
+          <t>Luyện</t>
         </is>
       </c>
       <c r="C1252">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Mặc</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C1253">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>Mao</t>
+          <t>Mă</t>
         </is>
       </c>
       <c r="C1254">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>MaQuang</t>
+          <t>Ma ̣</t>
         </is>
       </c>
       <c r="C1255">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>mathi</t>
+          <t>Maã</t>
         </is>
       </c>
       <c r="C1256">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Mathi</t>
+          <t>mac</t>
         </is>
       </c>
       <c r="C1257">
@@ -26768,7 +26768,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>MaThi</t>
+          <t>Măc</t>
         </is>
       </c>
       <c r="C1258">
@@ -26789,7 +26789,7 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>MẦU</t>
+          <t>Mặc</t>
         </is>
       </c>
       <c r="C1259">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Mẫu</t>
+          <t>Mao</t>
         </is>
       </c>
       <c r="C1260">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Me</t>
+          <t>MaQuang</t>
         </is>
       </c>
       <c r="C1261">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Mè</t>
+          <t>mathi</t>
         </is>
       </c>
       <c r="C1262">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Mẻ</t>
+          <t>Mathi</t>
         </is>
       </c>
       <c r="C1263">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Mgô</t>
+          <t>MaThi</t>
         </is>
       </c>
       <c r="C1264">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Mgọc</t>
+          <t>MẦU</t>
         </is>
       </c>
       <c r="C1265">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Mị</t>
+          <t>Mẫu</t>
         </is>
       </c>
       <c r="C1266">
@@ -26957,7 +26957,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>minh</t>
+          <t>Me</t>
         </is>
       </c>
       <c r="C1267">
@@ -26978,7 +26978,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Mó</t>
+          <t>Mè</t>
         </is>
       </c>
       <c r="C1268">
@@ -26999,7 +26999,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Mộng</t>
+          <t>Mẻ</t>
         </is>
       </c>
       <c r="C1269">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Mônh</t>
+          <t>Mgô</t>
         </is>
       </c>
       <c r="C1270">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Một</t>
+          <t>Mgọc</t>
         </is>
       </c>
       <c r="C1271">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Mùa</t>
+          <t>Mị</t>
         </is>
       </c>
       <c r="C1272">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>mùng</t>
+          <t>minh</t>
         </is>
       </c>
       <c r="C1273">
@@ -27104,7 +27104,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Mừng</t>
+          <t>Mó</t>
         </is>
       </c>
       <c r="C1274">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Mý</t>
+          <t>Mộng</t>
         </is>
       </c>
       <c r="C1275">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Mỹ</t>
+          <t>Mônh</t>
         </is>
       </c>
       <c r="C1276">
@@ -27167,7 +27167,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Mỵ</t>
+          <t>Một</t>
         </is>
       </c>
       <c r="C1277">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Mùa</t>
         </is>
       </c>
       <c r="C1278">
@@ -27209,7 +27209,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Nàn</t>
+          <t>mùng</t>
         </is>
       </c>
       <c r="C1279">
@@ -27230,7 +27230,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Nên</t>
+          <t>Mừng</t>
         </is>
       </c>
       <c r="C1280">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Ngại</t>
+          <t>Mý</t>
         </is>
       </c>
       <c r="C1281">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Ngầm</t>
+          <t>Mỹ</t>
         </is>
       </c>
       <c r="C1282">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Ngán</t>
+          <t>Mỵ</t>
         </is>
       </c>
       <c r="C1283">
@@ -27314,7 +27314,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>NGÂN</t>
+          <t>N</t>
         </is>
       </c>
       <c r="C1284">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Nghiem</t>
+          <t>Nàn</t>
         </is>
       </c>
       <c r="C1285">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Nghiễm</t>
+          <t>Nên</t>
         </is>
       </c>
       <c r="C1286">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Nghiẻm</t>
+          <t>Ngại</t>
         </is>
       </c>
       <c r="C1287">
@@ -27398,7 +27398,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Nghiêmthi</t>
+          <t>Ngầm</t>
         </is>
       </c>
       <c r="C1288">
@@ -27419,7 +27419,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Nghien</t>
+          <t>Ngán</t>
         </is>
       </c>
       <c r="C1289">
@@ -27440,7 +27440,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>nghiên</t>
+          <t>NGÂN</t>
         </is>
       </c>
       <c r="C1290">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Nghing</t>
+          <t>Nghiem</t>
         </is>
       </c>
       <c r="C1291">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Nghuyễn</t>
+          <t>Nghiễm</t>
         </is>
       </c>
       <c r="C1292">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Ngiên</t>
+          <t>Nghiẻm</t>
         </is>
       </c>
       <c r="C1293">
@@ -27524,7 +27524,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Ngiuên</t>
+          <t>Nghiêmthi</t>
         </is>
       </c>
       <c r="C1294">
@@ -27545,7 +27545,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Ngiuyễn</t>
+          <t>Nghien</t>
         </is>
       </c>
       <c r="C1295">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Ngiyeexn</t>
+          <t>nghiên</t>
         </is>
       </c>
       <c r="C1296">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>ngjj</t>
+          <t>Nghing</t>
         </is>
       </c>
       <c r="C1297">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Ngỗ</t>
+          <t>Nghuyễn</t>
         </is>
       </c>
       <c r="C1298">
@@ -27629,7 +27629,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Ngu</t>
+          <t>Ngiên</t>
         </is>
       </c>
       <c r="C1299">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Ngườm</t>
+          <t>Ngiuên</t>
         </is>
       </c>
       <c r="C1300">
@@ -27671,7 +27671,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Nguuyễn</t>
+          <t>Ngiuyễn</t>
         </is>
       </c>
       <c r="C1301">
@@ -27692,7 +27692,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Ngyền</t>
+          <t>Ngiyeexn</t>
         </is>
       </c>
       <c r="C1302">
@@ -27713,7 +27713,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Ngyễn</t>
+          <t>ngjj</t>
         </is>
       </c>
       <c r="C1303">
@@ -27734,7 +27734,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Ngyueenf</t>
+          <t>Ngỗ</t>
         </is>
       </c>
       <c r="C1304">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Ngyueenx</t>
+          <t>Ngu</t>
         </is>
       </c>
       <c r="C1305">
@@ -27776,7 +27776,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Ngyuyên</t>
+          <t>Ngườm</t>
         </is>
       </c>
       <c r="C1306">
@@ -27797,7 +27797,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>nhan</t>
+          <t>Nguuyễn</t>
         </is>
       </c>
       <c r="C1307">
@@ -27818,7 +27818,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>NHGUYỄN</t>
+          <t>Ngyền</t>
         </is>
       </c>
       <c r="C1308">
@@ -27839,7 +27839,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Nhiễm</t>
+          <t>Ngyễn</t>
         </is>
       </c>
       <c r="C1309">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Nhiền</t>
+          <t>Ngyueenf</t>
         </is>
       </c>
       <c r="C1310">
@@ -27881,7 +27881,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Nhiều</t>
+          <t>Ngyueenx</t>
         </is>
       </c>
       <c r="C1311">
@@ -27902,7 +27902,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Nhũ</t>
+          <t>Ngyuyên</t>
         </is>
       </c>
       <c r="C1312">
@@ -27923,7 +27923,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>NHƯ</t>
+          <t>nhan</t>
         </is>
       </c>
       <c r="C1313">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Nhục</t>
+          <t>NHGUYỄN</t>
         </is>
       </c>
       <c r="C1314">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Nhuễn</t>
+          <t>Nhiễm</t>
         </is>
       </c>
       <c r="C1315">
@@ -27986,7 +27986,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Nhương</t>
+          <t>Nhiền</t>
         </is>
       </c>
       <c r="C1316">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Nhuyến</t>
+          <t>Nhiều</t>
         </is>
       </c>
       <c r="C1317">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>NHUYỄN</t>
+          <t>Nhũ</t>
         </is>
       </c>
       <c r="C1318">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>NHƯ</t>
         </is>
       </c>
       <c r="C1319">
@@ -28070,7 +28070,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Ni'ê</t>
+          <t>Nhục</t>
         </is>
       </c>
       <c r="C1320">
@@ -28091,7 +28091,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Niêkđăm</t>
+          <t>Nhuễn</t>
         </is>
       </c>
       <c r="C1321">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Nimh</t>
+          <t>Nhương</t>
         </is>
       </c>
       <c r="C1322">
@@ -28133,7 +28133,7 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>ninh</t>
+          <t>Nhuyến</t>
         </is>
       </c>
       <c r="C1323">
@@ -28154,7 +28154,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>NỊNH</t>
+          <t>NHUYỄN</t>
         </is>
       </c>
       <c r="C1324">
@@ -28175,7 +28175,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Ninhgj</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="C1325">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Ninhj</t>
+          <t>Ni'ê</t>
         </is>
       </c>
       <c r="C1326">
@@ -28217,7 +28217,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Niu</t>
+          <t>Niêkđăm</t>
         </is>
       </c>
       <c r="C1327">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Nknh</t>
+          <t>Nimh</t>
         </is>
       </c>
       <c r="C1328">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>NMA</t>
+          <t>ninh</t>
         </is>
       </c>
       <c r="C1329">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>nôn</t>
+          <t>NỊNH</t>
         </is>
       </c>
       <c r="C1330">
@@ -28301,7 +28301,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Nồn</t>
+          <t>Ninhgj</t>
         </is>
       </c>
       <c r="C1331">
@@ -28322,7 +28322,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Nòng</t>
+          <t>Ninhj</t>
         </is>
       </c>
       <c r="C1332">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Nống</t>
+          <t>Niu</t>
         </is>
       </c>
       <c r="C1333">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Noong</t>
+          <t>Nknh</t>
         </is>
       </c>
       <c r="C1334">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Nù</t>
+          <t>NMA</t>
         </is>
       </c>
       <c r="C1335">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Nugyễn</t>
+          <t>nôn</t>
         </is>
       </c>
       <c r="C1336">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Nùng</t>
+          <t>Nồn</t>
         </is>
       </c>
       <c r="C1337">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Nũng</t>
+          <t>Nòng</t>
         </is>
       </c>
       <c r="C1338">
@@ -28469,7 +28469,7 @@
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Nước</t>
+          <t>Nống</t>
         </is>
       </c>
       <c r="C1339">
@@ -28490,7 +28490,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Oanh</t>
+          <t>Noong</t>
         </is>
       </c>
       <c r="C1340">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Ohan</t>
+          <t>Nù</t>
         </is>
       </c>
       <c r="C1341">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Nugyễn</t>
         </is>
       </c>
       <c r="C1342">
@@ -28553,7 +28553,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Pạm</t>
+          <t>Nùng</t>
         </is>
       </c>
       <c r="C1343">
@@ -28574,7 +28574,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Pay</t>
+          <t>Nũng</t>
         </is>
       </c>
       <c r="C1344">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>PÁY</t>
+          <t>Nước</t>
         </is>
       </c>
       <c r="C1345">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Pgạm</t>
+          <t>Oanh</t>
         </is>
       </c>
       <c r="C1346">
@@ -28637,7 +28637,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Phab</t>
+          <t>Ohan</t>
         </is>
       </c>
       <c r="C1347">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Phãm</t>
+          <t>Page</t>
         </is>
       </c>
       <c r="C1348">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Phảm</t>
+          <t>Pạm</t>
         </is>
       </c>
       <c r="C1349">
@@ -28700,7 +28700,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>PhaṃQuốc</t>
+          <t>Pay</t>
         </is>
       </c>
       <c r="C1350">
@@ -28721,7 +28721,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Phăn</t>
+          <t>PÁY</t>
         </is>
       </c>
       <c r="C1351">
@@ -28742,7 +28742,7 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>phạn</t>
+          <t>Pgạm</t>
         </is>
       </c>
       <c r="C1352">
@@ -28763,7 +28763,7 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>phăng</t>
+          <t>Phab</t>
         </is>
       </c>
       <c r="C1353">
@@ -28784,7 +28784,7 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Phạnh</t>
+          <t>Phãm</t>
         </is>
       </c>
       <c r="C1354">
@@ -28805,7 +28805,7 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Phế</t>
+          <t>Phảm</t>
         </is>
       </c>
       <c r="C1355">
@@ -28826,7 +28826,7 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Phèn</t>
+          <t>PhaṃQuốc</t>
         </is>
       </c>
       <c r="C1356">
@@ -28847,7 +28847,7 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Phì</t>
+          <t>Phăn</t>
         </is>
       </c>
       <c r="C1357">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Phìng</t>
+          <t>phạn</t>
         </is>
       </c>
       <c r="C1358">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Phình</t>
+          <t>phăng</t>
         </is>
       </c>
       <c r="C1359">
@@ -28910,7 +28910,7 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Phmj</t>
+          <t>Phạnh</t>
         </is>
       </c>
       <c r="C1360">
@@ -28931,7 +28931,7 @@
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Phn</t>
+          <t>Phế</t>
         </is>
       </c>
       <c r="C1361">
@@ -28952,7 +28952,7 @@
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Phón</t>
+          <t>Phèn</t>
         </is>
       </c>
       <c r="C1362">
@@ -28973,7 +28973,7 @@
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>PHÒNG</t>
+          <t>Phì</t>
         </is>
       </c>
       <c r="C1363">
@@ -28994,7 +28994,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Phsmj</t>
+          <t>Phìng</t>
         </is>
       </c>
       <c r="C1364">
@@ -29015,7 +29015,7 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Phuc</t>
+          <t>Phình</t>
         </is>
       </c>
       <c r="C1365">
@@ -29036,7 +29036,7 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>PHÚC</t>
+          <t>Phmj</t>
         </is>
       </c>
       <c r="C1366">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>PHỪNG</t>
+          <t>Phn</t>
         </is>
       </c>
       <c r="C1367">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Phụng</t>
+          <t>Phón</t>
         </is>
       </c>
       <c r="C1368">
@@ -29099,7 +29099,7 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Phường</t>
+          <t>PHÒNG</t>
         </is>
       </c>
       <c r="C1369">
@@ -29120,7 +29120,7 @@
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Piền</t>
+          <t>Phsmj</t>
         </is>
       </c>
       <c r="C1370">
@@ -29141,7 +29141,7 @@
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Pjam</t>
+          <t>Phuc</t>
         </is>
       </c>
       <c r="C1371">
@@ -29162,7 +29162,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>qoan</t>
+          <t>PHÚC</t>
         </is>
       </c>
       <c r="C1372">
@@ -29183,7 +29183,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Quaân</t>
+          <t>PHỪNG</t>
         </is>
       </c>
       <c r="C1373">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>Quam</t>
+          <t>Phụng</t>
         </is>
       </c>
       <c r="C1374">
@@ -29225,7 +29225,7 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Quán</t>
+          <t>Phường</t>
         </is>
       </c>
       <c r="C1375">
@@ -29246,7 +29246,7 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Piền</t>
         </is>
       </c>
       <c r="C1376">
@@ -29267,7 +29267,7 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>QUẢN</t>
+          <t>Pjam</t>
         </is>
       </c>
       <c r="C1377">
@@ -29288,7 +29288,7 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Quạn</t>
+          <t>qoan</t>
         </is>
       </c>
       <c r="C1378">
@@ -29309,7 +29309,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Quânđức</t>
+          <t>Quaân</t>
         </is>
       </c>
       <c r="C1379">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>QUANG</t>
+          <t>Quam</t>
         </is>
       </c>
       <c r="C1380">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Quầng</t>
+          <t>Quán</t>
         </is>
       </c>
       <c r="C1381">
@@ -29372,7 +29372,7 @@
       </c>
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Qun</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C1382">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Quoan</t>
+          <t>QUẢN</t>
         </is>
       </c>
       <c r="C1383">
@@ -29414,7 +29414,7 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Quôc</t>
+          <t>Quạn</t>
         </is>
       </c>
       <c r="C1384">
@@ -29435,7 +29435,7 @@
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>QUỐC</t>
+          <t>Quânđức</t>
         </is>
       </c>
       <c r="C1385">
@@ -29456,7 +29456,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Quuan</t>
+          <t>QUANG</t>
         </is>
       </c>
       <c r="C1386">
@@ -29477,7 +29477,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Quyên</t>
+          <t>Quầng</t>
         </is>
       </c>
       <c r="C1387">
@@ -29498,7 +29498,7 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Quyến</t>
+          <t>Qun</t>
         </is>
       </c>
       <c r="C1388">
@@ -29519,7 +29519,7 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Quyễn</t>
+          <t>Quoan</t>
         </is>
       </c>
       <c r="C1389">
@@ -29540,7 +29540,7 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Rần</t>
+          <t>Quôc</t>
         </is>
       </c>
       <c r="C1390">
@@ -29561,7 +29561,7 @@
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Ràng</t>
+          <t>QUỐC</t>
         </is>
       </c>
       <c r="C1391">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Rạng</t>
+          <t>Quuan</t>
         </is>
       </c>
       <c r="C1392">
@@ -29603,7 +29603,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Rêu</t>
+          <t>Quyên</t>
         </is>
       </c>
       <c r="C1393">
@@ -29624,7 +29624,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>RMAH'</t>
+          <t>Quyến</t>
         </is>
       </c>
       <c r="C1394">
@@ -29645,7 +29645,7 @@
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Roãn</t>
+          <t>Quyễn</t>
         </is>
       </c>
       <c r="C1395">
@@ -29666,7 +29666,7 @@
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>rương</t>
+          <t>Rần</t>
         </is>
       </c>
       <c r="C1396">
@@ -29687,7 +29687,7 @@
       </c>
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Sạ</t>
+          <t>Ràng</t>
         </is>
       </c>
       <c r="C1397">
@@ -29708,7 +29708,7 @@
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Sạch</t>
+          <t>Rạng</t>
         </is>
       </c>
       <c r="C1398">
@@ -29729,7 +29729,7 @@
       </c>
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Sái</t>
+          <t>Rêu</t>
         </is>
       </c>
       <c r="C1399">
@@ -29750,7 +29750,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Sám</t>
+          <t>RMAH'</t>
         </is>
       </c>
       <c r="C1400">
@@ -29771,7 +29771,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Sẵm</t>
+          <t>Roãn</t>
         </is>
       </c>
       <c r="C1401">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>SẤM</t>
+          <t>rương</t>
         </is>
       </c>
       <c r="C1402">
@@ -29813,7 +29813,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Sẩm</t>
+          <t>Sạ</t>
         </is>
       </c>
       <c r="C1403">
@@ -29834,7 +29834,7 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>SẨM</t>
+          <t>Sạch</t>
         </is>
       </c>
       <c r="C1404">
@@ -29855,7 +29855,7 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>SằmThi</t>
+          <t>Sái</t>
         </is>
       </c>
       <c r="C1405">
@@ -29876,7 +29876,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Sầmthj</t>
+          <t>Sám</t>
         </is>
       </c>
       <c r="C1406">
@@ -29897,7 +29897,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>SẦN</t>
+          <t>Sẵm</t>
         </is>
       </c>
       <c r="C1407">
@@ -29918,7 +29918,7 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Sản</t>
+          <t>SẤM</t>
         </is>
       </c>
       <c r="C1408">
@@ -29939,7 +29939,7 @@
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Sen</t>
+          <t>Sẩm</t>
         </is>
       </c>
       <c r="C1409">
@@ -29960,7 +29960,7 @@
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Sền</t>
+          <t>SẨM</t>
         </is>
       </c>
       <c r="C1410">
@@ -29981,7 +29981,7 @@
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>SằmThi</t>
         </is>
       </c>
       <c r="C1411">
@@ -30002,7 +30002,7 @@
       </c>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Siềm</t>
+          <t>Sầmthj</t>
         </is>
       </c>
       <c r="C1412">
@@ -30023,7 +30023,7 @@
       </c>
       <c r="B1413" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>SẦN</t>
         </is>
       </c>
       <c r="C1413">
@@ -30044,7 +30044,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Sín</t>
+          <t>Sản</t>
         </is>
       </c>
       <c r="C1414">
@@ -30065,7 +30065,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Sinh</t>
+          <t>Sen</t>
         </is>
       </c>
       <c r="C1415">
@@ -30086,7 +30086,7 @@
       </c>
       <c r="B1416" t="inlineStr">
         <is>
-          <t>Só</t>
+          <t>Sền</t>
         </is>
       </c>
       <c r="C1416">
@@ -30107,7 +30107,7 @@
       </c>
       <c r="B1417" t="inlineStr">
         <is>
-          <t>Soái</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C1417">
@@ -30128,7 +30128,7 @@
       </c>
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Sòi</t>
+          <t>Siềm</t>
         </is>
       </c>
       <c r="C1418">
@@ -30149,7 +30149,7 @@
       </c>
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Sớm</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="C1419">
@@ -30170,7 +30170,7 @@
       </c>
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Sù</t>
+          <t>Sín</t>
         </is>
       </c>
       <c r="C1420">
@@ -30191,7 +30191,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Sứ</t>
+          <t>Sinh</t>
         </is>
       </c>
       <c r="C1421">
@@ -30212,7 +30212,7 @@
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>Sương</t>
+          <t>Só</t>
         </is>
       </c>
       <c r="C1422">
@@ -30233,7 +30233,7 @@
       </c>
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Suỳ</t>
+          <t>Soái</t>
         </is>
       </c>
       <c r="C1423">
@@ -30254,7 +30254,7 @@
       </c>
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Sỳ</t>
+          <t>Sòi</t>
         </is>
       </c>
       <c r="C1424">
@@ -30275,7 +30275,7 @@
       </c>
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Tá</t>
+          <t>Sớm</t>
         </is>
       </c>
       <c r="C1425">
@@ -30296,7 +30296,7 @@
       </c>
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Tà</t>
+          <t>Sù</t>
         </is>
       </c>
       <c r="C1426">
@@ -30317,7 +30317,7 @@
       </c>
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Tả</t>
+          <t>Sứ</t>
         </is>
       </c>
       <c r="C1427">
@@ -30338,7 +30338,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Tàn</t>
+          <t>Sương</t>
         </is>
       </c>
       <c r="C1428">
@@ -30359,7 +30359,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Tấn</t>
+          <t>Suỳ</t>
         </is>
       </c>
       <c r="C1429">
@@ -30380,7 +30380,7 @@
       </c>
       <c r="B1430" t="inlineStr">
         <is>
-          <t>tẩn</t>
+          <t>Sỳ</t>
         </is>
       </c>
       <c r="C1430">
@@ -30401,7 +30401,7 @@
       </c>
       <c r="B1431" t="inlineStr">
         <is>
-          <t>tào</t>
+          <t>Tá</t>
         </is>
       </c>
       <c r="C1431">
@@ -30422,7 +30422,7 @@
       </c>
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Tất</t>
+          <t>Tà</t>
         </is>
       </c>
       <c r="C1432">
@@ -30443,7 +30443,7 @@
       </c>
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Tẩu</t>
+          <t>Tả</t>
         </is>
       </c>
       <c r="C1433">
@@ -30464,7 +30464,7 @@
       </c>
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Te</t>
+          <t>Tàn</t>
         </is>
       </c>
       <c r="C1434">
@@ -30485,7 +30485,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Tế</t>
+          <t>Tấn</t>
         </is>
       </c>
       <c r="C1435">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>TỀ</t>
+          <t>tẩn</t>
         </is>
       </c>
       <c r="C1436">
@@ -30527,7 +30527,7 @@
       </c>
       <c r="B1437" t="inlineStr">
         <is>
-          <t>Thạc</t>
+          <t>tào</t>
         </is>
       </c>
       <c r="C1437">
@@ -30548,7 +30548,7 @@
       </c>
       <c r="B1438" t="inlineStr">
         <is>
-          <t>THẨM</t>
+          <t>Tất</t>
         </is>
       </c>
       <c r="C1438">
@@ -30569,7 +30569,7 @@
       </c>
       <c r="B1439" t="inlineStr">
         <is>
-          <t>THẨM</t>
+          <t>Tẩu</t>
         </is>
       </c>
       <c r="C1439">
@@ -30590,7 +30590,7 @@
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Thămg</t>
+          <t>Te</t>
         </is>
       </c>
       <c r="C1440">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Thạnh</t>
+          <t>Tế</t>
         </is>
       </c>
       <c r="C1441">
@@ -30632,7 +30632,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>thảo</t>
+          <t>TỀ</t>
         </is>
       </c>
       <c r="C1442">
@@ -30653,7 +30653,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Thảo</t>
+          <t>Thạc</t>
         </is>
       </c>
       <c r="C1443">
@@ -30674,7 +30674,7 @@
       </c>
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Thẻn</t>
+          <t>THẨM</t>
         </is>
       </c>
       <c r="C1444">
@@ -30695,7 +30695,7 @@
       </c>
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Thèng</t>
+          <t>THẨM</t>
         </is>
       </c>
       <c r="C1445">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="B1446" t="inlineStr">
         <is>
-          <t>thi</t>
+          <t>Thămg</t>
         </is>
       </c>
       <c r="C1446">
@@ -30737,7 +30737,7 @@
       </c>
       <c r="B1447" t="inlineStr">
         <is>
-          <t>thiêu</t>
+          <t>Thạnh</t>
         </is>
       </c>
       <c r="C1447">
@@ -30758,7 +30758,7 @@
       </c>
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Thiêu</t>
+          <t>thảo</t>
         </is>
       </c>
       <c r="C1448">
@@ -30779,7 +30779,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>thiều</t>
+          <t>Thảo</t>
         </is>
       </c>
       <c r="C1449">
@@ -30800,7 +30800,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Thoà</t>
+          <t>Thẻn</t>
         </is>
       </c>
       <c r="C1450">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Thèng</t>
         </is>
       </c>
       <c r="C1451">
@@ -30842,7 +30842,7 @@
       </c>
       <c r="B1452" t="inlineStr">
         <is>
-          <t>THƯỜNG</t>
+          <t>thi</t>
         </is>
       </c>
       <c r="C1452">
@@ -30863,7 +30863,7 @@
       </c>
       <c r="B1453" t="inlineStr">
         <is>
-          <t>THƯỞNG</t>
+          <t>thiêu</t>
         </is>
       </c>
       <c r="C1453">
@@ -30884,7 +30884,7 @@
       </c>
       <c r="B1454" t="inlineStr">
         <is>
-          <t>THƯỢNG</t>
+          <t>Thiêu</t>
         </is>
       </c>
       <c r="C1454">
@@ -30905,7 +30905,7 @@
       </c>
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Tiến</t>
+          <t>thiều</t>
         </is>
       </c>
       <c r="C1455">
@@ -30926,7 +30926,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Tiền</t>
+          <t>Thoà</t>
         </is>
       </c>
       <c r="C1456">
@@ -30947,7 +30947,7 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>Tiện</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C1457">
@@ -30968,7 +30968,7 @@
       </c>
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Tiểu</t>
+          <t>THƯỜNG</t>
         </is>
       </c>
       <c r="C1458">
@@ -30989,7 +30989,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Tộ</t>
+          <t>THƯỞNG</t>
         </is>
       </c>
       <c r="C1459">
@@ -31010,7 +31010,7 @@
       </c>
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Toàn</t>
+          <t>THƯỢNG</t>
         </is>
       </c>
       <c r="C1460">
@@ -31031,7 +31031,7 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Toáng</t>
+          <t>Tiến</t>
         </is>
       </c>
       <c r="C1461">
@@ -31052,7 +31052,7 @@
       </c>
       <c r="B1462" t="inlineStr">
         <is>
-          <t>tôi</t>
+          <t>Tiền</t>
         </is>
       </c>
       <c r="C1462">
@@ -31073,7 +31073,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>Tiện</t>
         </is>
       </c>
       <c r="C1463">
@@ -31094,7 +31094,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Trẩ</t>
+          <t>Tiểu</t>
         </is>
       </c>
       <c r="C1464">
@@ -31115,7 +31115,7 @@
       </c>
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Trâbf</t>
+          <t>Tộ</t>
         </is>
       </c>
       <c r="C1465">
@@ -31136,7 +31136,7 @@
       </c>
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Trác</t>
+          <t>Toàn</t>
         </is>
       </c>
       <c r="C1466">
@@ -31157,7 +31157,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Trắc</t>
+          <t>Toáng</t>
         </is>
       </c>
       <c r="C1467">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Trặc</t>
+          <t>tôi</t>
         </is>
       </c>
       <c r="C1468">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Trai</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="C1469">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Trẩm</t>
+          <t>Trẩ</t>
         </is>
       </c>
       <c r="C1470">
@@ -31241,7 +31241,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>TrÀn</t>
+          <t>Trâbf</t>
         </is>
       </c>
       <c r="C1471">
@@ -31262,7 +31262,7 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>TRẦ̀N</t>
+          <t>Trác</t>
         </is>
       </c>
       <c r="C1472">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>Trẩn</t>
+          <t>Trắc</t>
         </is>
       </c>
       <c r="C1473">
@@ -31304,7 +31304,7 @@
       </c>
       <c r="B1474" t="inlineStr">
         <is>
-          <t>trăng</t>
+          <t>Trặc</t>
         </is>
       </c>
       <c r="C1474">
@@ -31325,7 +31325,7 @@
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Trặng</t>
+          <t>Trai</t>
         </is>
       </c>
       <c r="C1475">
@@ -31346,7 +31346,7 @@
       </c>
       <c r="B1476" t="inlineStr">
         <is>
-          <t>Trẩu</t>
+          <t>Trẩm</t>
         </is>
       </c>
       <c r="C1476">
@@ -31367,7 +31367,7 @@
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Trên</t>
+          <t>TrÀn</t>
         </is>
       </c>
       <c r="C1477">
@@ -31388,7 +31388,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Trêu</t>
+          <t>TRẦ̀N</t>
         </is>
       </c>
       <c r="C1478">
@@ -31409,7 +31409,7 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Trệu</t>
+          <t>Trẩn</t>
         </is>
       </c>
       <c r="C1479">
@@ -31430,7 +31430,7 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>trệu</t>
+          <t>trăng</t>
         </is>
       </c>
       <c r="C1480">
@@ -31451,7 +31451,7 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Trí</t>
+          <t>Trặng</t>
         </is>
       </c>
       <c r="C1481">
@@ -31472,7 +31472,7 @@
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Trị</t>
+          <t>Trẩu</t>
         </is>
       </c>
       <c r="C1482">
@@ -31493,7 +31493,7 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Trịch</t>
+          <t>Trên</t>
         </is>
       </c>
       <c r="C1483">
@@ -31514,7 +31514,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Triện</t>
+          <t>Trêu</t>
         </is>
       </c>
       <c r="C1484">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>TRIÊU</t>
+          <t>Trệu</t>
         </is>
       </c>
       <c r="C1485">
@@ -31556,7 +31556,7 @@
       </c>
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Triều</t>
+          <t>trệu</t>
         </is>
       </c>
       <c r="C1486">
@@ -31577,7 +31577,7 @@
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Triễu</t>
+          <t>Trí</t>
         </is>
       </c>
       <c r="C1487">
@@ -31598,7 +31598,7 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>trịêu</t>
+          <t>Trị</t>
         </is>
       </c>
       <c r="C1488">
@@ -31619,7 +31619,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Trịêu</t>
+          <t>Trịch</t>
         </is>
       </c>
       <c r="C1489">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Trịệu</t>
+          <t>Triện</t>
         </is>
       </c>
       <c r="C1490">
@@ -31661,7 +31661,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Triey</t>
+          <t>TRIÊU</t>
         </is>
       </c>
       <c r="C1491">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Trimhj</t>
+          <t>Triều</t>
         </is>
       </c>
       <c r="C1492">
@@ -31703,7 +31703,7 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Trỉnh</t>
+          <t>Triễu</t>
         </is>
       </c>
       <c r="C1493">
@@ -31724,7 +31724,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Trinhk</t>
+          <t>trịêu</t>
         </is>
       </c>
       <c r="C1494">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Trinhn</t>
+          <t>Trịêu</t>
         </is>
       </c>
       <c r="C1495">
@@ -31766,7 +31766,7 @@
       </c>
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Trơn</t>
+          <t>Trịệu</t>
         </is>
       </c>
       <c r="C1496">
@@ -31787,7 +31787,7 @@
       </c>
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Trơng</t>
+          <t>Triey</t>
         </is>
       </c>
       <c r="C1497">
@@ -31808,7 +31808,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>Troọng</t>
+          <t>Trimhj</t>
         </is>
       </c>
       <c r="C1498">
@@ -31829,7 +31829,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Trơung</t>
+          <t>Trỉnh</t>
         </is>
       </c>
       <c r="C1499">
@@ -31850,7 +31850,7 @@
       </c>
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Trran</t>
+          <t>Trinhk</t>
         </is>
       </c>
       <c r="C1500">
@@ -31871,7 +31871,7 @@
       </c>
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Trừ</t>
+          <t>Trinhn</t>
         </is>
       </c>
       <c r="C1501">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Trúe</t>
+          <t>Trơn</t>
         </is>
       </c>
       <c r="C1502">
@@ -31913,7 +31913,7 @@
       </c>
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Truệu</t>
+          <t>Trơng</t>
         </is>
       </c>
       <c r="C1503">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Trưởng</t>
+          <t>Troọng</t>
         </is>
       </c>
       <c r="C1504">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Trượng</t>
+          <t>Trơung</t>
         </is>
       </c>
       <c r="C1505">
@@ -31976,7 +31976,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Trupng</t>
+          <t>Trran</t>
         </is>
       </c>
       <c r="C1506">
@@ -31997,7 +31997,7 @@
       </c>
       <c r="B1507" t="inlineStr">
         <is>
-          <t>Ttần</t>
+          <t>Trừ</t>
         </is>
       </c>
       <c r="C1507">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Tủ</t>
+          <t>Trúe</t>
         </is>
       </c>
       <c r="C1508">
@@ -32039,7 +32039,7 @@
       </c>
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Tư</t>
+          <t>Truệu</t>
         </is>
       </c>
       <c r="C1509">
@@ -32060,7 +32060,7 @@
       </c>
       <c r="B1510" t="inlineStr">
         <is>
-          <t>TỪ</t>
+          <t>Trưởng</t>
         </is>
       </c>
       <c r="C1510">
@@ -32081,7 +32081,7 @@
       </c>
       <c r="B1511" t="inlineStr">
         <is>
-          <t>TỤ</t>
+          <t>Trượng</t>
         </is>
       </c>
       <c r="C1511">
@@ -32102,7 +32102,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>tương</t>
+          <t>Trupng</t>
         </is>
       </c>
       <c r="C1512">
@@ -32123,7 +32123,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Tứong</t>
+          <t>Ttần</t>
         </is>
       </c>
       <c r="C1513">
@@ -32144,7 +32144,7 @@
       </c>
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Tứơng</t>
+          <t>Tủ</t>
         </is>
       </c>
       <c r="C1514">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Tuyền</t>
+          <t>Tư</t>
         </is>
       </c>
       <c r="C1515">
@@ -32186,7 +32186,7 @@
       </c>
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Uhưa</t>
+          <t>TỪ</t>
         </is>
       </c>
       <c r="C1516">
@@ -32207,7 +32207,7 @@
       </c>
       <c r="B1517" t="inlineStr">
         <is>
-          <t>Ưng</t>
+          <t>TỤ</t>
         </is>
       </c>
       <c r="C1517">
@@ -32228,7 +32228,7 @@
       </c>
       <c r="B1518" t="inlineStr">
         <is>
-          <t>ỨNG</t>
+          <t>tương</t>
         </is>
       </c>
       <c r="C1518">
@@ -32249,7 +32249,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Uổng</t>
+          <t>Tứong</t>
         </is>
       </c>
       <c r="C1519">
@@ -32270,7 +32270,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>va</t>
+          <t>Tứơng</t>
         </is>
       </c>
       <c r="C1520">
@@ -32291,7 +32291,7 @@
       </c>
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Và</t>
+          <t>Tuyền</t>
         </is>
       </c>
       <c r="C1521">
@@ -32312,7 +32312,7 @@
       </c>
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Vằn</t>
+          <t>Uhưa</t>
         </is>
       </c>
       <c r="C1522">
@@ -32333,7 +32333,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Vẵn</t>
+          <t>Ưng</t>
         </is>
       </c>
       <c r="C1523">
@@ -32354,7 +32354,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Vâng</t>
+          <t>ỨNG</t>
         </is>
       </c>
       <c r="C1524">
@@ -32375,7 +32375,7 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>Về</t>
+          <t>Uổng</t>
         </is>
       </c>
       <c r="C1525">
@@ -32396,7 +32396,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>VỊ</t>
+          <t>va</t>
         </is>
       </c>
       <c r="C1526">
@@ -32417,7 +32417,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>Vĩnh</t>
+          <t>Và</t>
         </is>
       </c>
       <c r="C1527">
@@ -32438,7 +32438,7 @@
       </c>
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Vo</t>
+          <t>Vằn</t>
         </is>
       </c>
       <c r="C1528">
@@ -32459,7 +32459,7 @@
       </c>
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Voàng</t>
+          <t>Vẵn</t>
         </is>
       </c>
       <c r="C1529">
@@ -32480,7 +32480,7 @@
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Vù</t>
+          <t>Vâng</t>
         </is>
       </c>
       <c r="C1530">
@@ -32501,7 +32501,7 @@
       </c>
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Vü</t>
+          <t>Về</t>
         </is>
       </c>
       <c r="C1531">
@@ -32522,7 +32522,7 @@
       </c>
       <c r="B1532" t="inlineStr">
         <is>
-          <t>VỤ</t>
+          <t>VỊ</t>
         </is>
       </c>
       <c r="C1532">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>Vùi</t>
+          <t>Vĩnh</t>
         </is>
       </c>
       <c r="C1533">
@@ -32564,7 +32564,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>Vươgn</t>
+          <t>Vo</t>
         </is>
       </c>
       <c r="C1534">
@@ -32585,7 +32585,7 @@
       </c>
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Vươmg</t>
+          <t>Voàng</t>
         </is>
       </c>
       <c r="C1535">
@@ -32606,7 +32606,7 @@
       </c>
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Vường</t>
+          <t>Vù</t>
         </is>
       </c>
       <c r="C1536">
@@ -32627,7 +32627,7 @@
       </c>
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Vuũ</t>
+          <t>Vü</t>
         </is>
       </c>
       <c r="C1537">
@@ -32648,7 +32648,7 @@
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Vuũ</t>
+          <t>VỤ</t>
         </is>
       </c>
       <c r="C1538">
@@ -32669,7 +32669,7 @@
       </c>
       <c r="B1539" t="inlineStr">
         <is>
-          <t>VUŨ</t>
+          <t>Vùi</t>
         </is>
       </c>
       <c r="C1539">
@@ -32690,7 +32690,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>Vỹ</t>
+          <t>Vươgn</t>
         </is>
       </c>
       <c r="C1540">
@@ -32711,7 +32711,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Xạ</t>
+          <t>Vươmg</t>
         </is>
       </c>
       <c r="C1541">
@@ -32732,7 +32732,7 @@
       </c>
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Xăm</t>
+          <t>Vường</t>
         </is>
       </c>
       <c r="C1542">
@@ -32753,7 +32753,7 @@
       </c>
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Xằm</t>
+          <t>Vuũ</t>
         </is>
       </c>
       <c r="C1543">
@@ -32774,7 +32774,7 @@
       </c>
       <c r="B1544" t="inlineStr">
         <is>
-          <t>XẰM</t>
+          <t>Vuũ</t>
         </is>
       </c>
       <c r="C1544">
@@ -32795,7 +32795,7 @@
       </c>
       <c r="B1545" t="inlineStr">
         <is>
-          <t>Xen</t>
+          <t>VUŨ</t>
         </is>
       </c>
       <c r="C1545">
@@ -32816,7 +32816,7 @@
       </c>
       <c r="B1546" t="inlineStr">
         <is>
-          <t>Xẻng</t>
+          <t>Vỹ</t>
         </is>
       </c>
       <c r="C1546">
@@ -32837,7 +32837,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Xéo</t>
+          <t>Xạ</t>
         </is>
       </c>
       <c r="C1547">
@@ -32858,7 +32858,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Xi</t>
+          <t>Xăm</t>
         </is>
       </c>
       <c r="C1548">
@@ -32879,7 +32879,7 @@
       </c>
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Xiêm</t>
+          <t>Xằm</t>
         </is>
       </c>
       <c r="C1549">
@@ -32900,7 +32900,7 @@
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Xỉn</t>
+          <t>XẰM</t>
         </is>
       </c>
       <c r="C1550">
@@ -32921,7 +32921,7 @@
       </c>
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Ya</t>
+          <t>Xen</t>
         </is>
       </c>
       <c r="C1551">
@@ -32942,16 +32942,142 @@
       </c>
       <c r="B1552" t="inlineStr">
         <is>
+          <t>Xẻng</t>
+        </is>
+      </c>
+      <c r="C1552">
+        <v>1</v>
+      </c>
+      <c r="D1552">
+        <v>774612</v>
+      </c>
+      <c r="E1552">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>Xéo</t>
+        </is>
+      </c>
+      <c r="C1553">
+        <v>1</v>
+      </c>
+      <c r="D1553">
+        <v>774612</v>
+      </c>
+      <c r="E1553">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>Xi</t>
+        </is>
+      </c>
+      <c r="C1554">
+        <v>1</v>
+      </c>
+      <c r="D1554">
+        <v>774612</v>
+      </c>
+      <c r="E1554">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>Xiêm</t>
+        </is>
+      </c>
+      <c r="C1555">
+        <v>1</v>
+      </c>
+      <c r="D1555">
+        <v>774612</v>
+      </c>
+      <c r="E1555">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>Xỉn</t>
+        </is>
+      </c>
+      <c r="C1556">
+        <v>1</v>
+      </c>
+      <c r="D1556">
+        <v>774612</v>
+      </c>
+      <c r="E1556">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>Ya</t>
+        </is>
+      </c>
+      <c r="C1557">
+        <v>1</v>
+      </c>
+      <c r="D1557">
+        <v>774612</v>
+      </c>
+      <c r="E1557">
+        <v>0.000129096889797731</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
           <t>ZƠ</t>
         </is>
       </c>
-      <c r="C1552">
-        <v>1</v>
-      </c>
-      <c r="D1552">
-        <v>774612</v>
-      </c>
-      <c r="E1552">
+      <c r="C1558">
+        <v>1</v>
+      </c>
+      <c r="D1558">
+        <v>774612</v>
+      </c>
+      <c r="E1558">
         <v>0.000129096889797731</v>
       </c>
     </row>
